--- a/branches/master/StructureDefinition-coverage-pemh-profile.xlsx
+++ b/branches/master/StructureDefinition-coverage-pemh-profile.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-14T09:12:07+00:00</t>
+    <t>2022-07-14T09:51:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-coverage-pemh-profile.xlsx
+++ b/branches/master/StructureDefinition-coverage-pemh-profile.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-14T09:51:10+00:00</t>
+    <t>2022-07-14T10:13:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-coverage-pemh-profile.xlsx
+++ b/branches/master/StructureDefinition-coverage-pemh-profile.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-14T10:13:19+00:00</t>
+    <t>2022-07-14T10:27:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-coverage-pemh-profile.xlsx
+++ b/branches/master/StructureDefinition-coverage-pemh-profile.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-14T10:27:58+00:00</t>
+    <t>2022-07-14T10:47:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-coverage-pemh-profile.xlsx
+++ b/branches/master/StructureDefinition-coverage-pemh-profile.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-14T10:47:14+00:00</t>
+    <t>2022-07-14T11:00:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-coverage-pemh-profile.xlsx
+++ b/branches/master/StructureDefinition-coverage-pemh-profile.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-14T11:00:22+00:00</t>
+    <t>2022-07-14T11:39:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-coverage-pemh-profile.xlsx
+++ b/branches/master/StructureDefinition-coverage-pemh-profile.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-14T11:39:56+00:00</t>
+    <t>2022-07-14T12:13:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-coverage-pemh-profile.xlsx
+++ b/branches/master/StructureDefinition-coverage-pemh-profile.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-14T12:13:58+00:00</t>
+    <t>2022-07-14T12:15:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-coverage-pemh-profile.xlsx
+++ b/branches/master/StructureDefinition-coverage-pemh-profile.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-14T12:15:20+00:00</t>
+    <t>2022-07-14T12:28:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-coverage-pemh-profile.xlsx
+++ b/branches/master/StructureDefinition-coverage-pemh-profile.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2604" uniqueCount="460">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2604" uniqueCount="461">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-14T12:28:55+00:00</t>
+    <t>2022-09-22T18:17:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -281,262 +281,266 @@
     <t>Y</t>
   </si>
   <si>
+    <t xml:space="preserve">id
+</t>
+  </si>
+  <si>
+    <t>Logical id of this artifact</t>
+  </si>
+  <si>
+    <t>The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
+  </si>
+  <si>
+    <t>The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
+  </si>
+  <si>
+    <t>Resource.id</t>
+  </si>
+  <si>
+    <t>Encounter.meta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meta
+</t>
+  </si>
+  <si>
+    <t>Metadata about the resource</t>
+  </si>
+  <si>
+    <t>The metadata about the resource. This is content that is maintained by the infrastructure. Changes to the content might not always be associated with version changes to the resource.</t>
+  </si>
+  <si>
+    <t>Resource.meta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+</t>
+  </si>
+  <si>
+    <t>Encounter.implicitRules</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uri
+</t>
+  </si>
+  <si>
+    <t>A set of rules under which this content was created</t>
+  </si>
+  <si>
+    <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content. Often, this is a reference to an implementation guide that defines the special rules along with other profiles etc.</t>
+  </si>
+  <si>
+    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. Often, when used, the URL is a reference to an implementation guide that defines these special rules as part of it's narrative along with other profiles, value sets, etc.</t>
+  </si>
+  <si>
+    <t>Resource.implicitRules</t>
+  </si>
+  <si>
+    <t>Encounter.language</t>
+  </si>
+  <si>
+    <t xml:space="preserve">code
+</t>
+  </si>
+  <si>
+    <t>Language of the resource content</t>
+  </si>
+  <si>
+    <t>The base language in which the resource is written.</t>
+  </si>
+  <si>
+    <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource. Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
+  </si>
+  <si>
+    <t>preferred</t>
+  </si>
+  <si>
+    <t>A human language.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/languages</t>
+  </si>
+  <si>
+    <t>Resource.language</t>
+  </si>
+  <si>
+    <t>Encounter.text</t>
+  </si>
+  <si>
+    <t>narrative
+htmlxhtmldisplay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Narrative
+</t>
+  </si>
+  <si>
+    <t>Text summary of the resource, for human interpretation</t>
+  </si>
+  <si>
+    <t>A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
+  </si>
+  <si>
+    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
+  </si>
+  <si>
+    <t>DomainResource.text</t>
+  </si>
+  <si>
+    <t>Act.text?</t>
+  </si>
+  <si>
+    <t>Encounter.contained</t>
+  </si>
+  <si>
+    <t>inline resources
+anonymous resourcescontained resources</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resource
+</t>
+  </si>
+  <si>
+    <t>Contained, inline Resources</t>
+  </si>
+  <si>
+    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
+  </si>
+  <si>
+    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags In their meta elements, but SHALL NOT have security labels.</t>
+  </si>
+  <si>
+    <t>DomainResource.contained</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Encounter.extension</t>
+  </si>
+  <si>
+    <t>extensions
+user content</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension
+</t>
+  </si>
+  <si>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
+    <t>DomainResource.extension</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
+    <t>Encounter.modifierExtension</t>
+  </si>
+  <si>
+    <t>Extensions that cannot be ignored</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
+Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
+  </si>
+  <si>
+    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
+  </si>
+  <si>
+    <t>DomainResource.modifierExtension</t>
+  </si>
+  <si>
+    <t>Encounter.identifier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Identifier
+</t>
+  </si>
+  <si>
+    <t>Identifier(s) by which this encounter is known</t>
+  </si>
+  <si>
+    <t>Identifier(s) by which this encounter is known.</t>
+  </si>
+  <si>
+    <t>Event.identifier</t>
+  </si>
+  <si>
+    <t>.id</t>
+  </si>
+  <si>
+    <t>FiveWs.identifier</t>
+  </si>
+  <si>
+    <t>PV1-19</t>
+  </si>
+  <si>
+    <t>Encounter.status</t>
+  </si>
+  <si>
+    <t>planned | arrived | triaged | in-progress | onleave | finished | cancelled +</t>
+  </si>
+  <si>
+    <t>planned | arrived | triaged | in-progress | onleave | finished | cancelled +.</t>
+  </si>
+  <si>
+    <t>Note that internal business rules will determine the appropriate transitions that may occur between statuses (and also classes).</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>Current state of the encounter.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/encounter-status|4.0.1</t>
+  </si>
+  <si>
+    <t>Event.status</t>
+  </si>
+  <si>
+    <t>.statusCode</t>
+  </si>
+  <si>
+    <t>FiveWs.status</t>
+  </si>
+  <si>
+    <t>No clear equivalent in HL7 v2; active/finished could be inferred from PV1-44, PV1-45, PV2-24; inactive could be inferred from PV2-16</t>
+  </si>
+  <si>
+    <t>Encounter.statusHistory</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BackboneElement
+</t>
+  </si>
+  <si>
+    <t>List of past encounter statuses</t>
+  </si>
+  <si>
+    <t>The status history permits the encounter resource to contain the status history without needing to read through the historical versions of the resource, or even have the server store them.</t>
+  </si>
+  <si>
+    <t>The current status is always found in the current version of the resource, not the status history.</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>Encounter.statusHistory.id</t>
+  </si>
+  <si>
     <t xml:space="preserve">string
 </t>
-  </si>
-  <si>
-    <t>Logical id of this artifact</t>
-  </si>
-  <si>
-    <t>The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
-  </si>
-  <si>
-    <t>The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
-  </si>
-  <si>
-    <t>Resource.id</t>
-  </si>
-  <si>
-    <t>Encounter.meta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Meta
-</t>
-  </si>
-  <si>
-    <t>Metadata about the resource</t>
-  </si>
-  <si>
-    <t>The metadata about the resource. This is content that is maintained by the infrastructure. Changes to the content might not always be associated with version changes to the resource.</t>
-  </si>
-  <si>
-    <t>Resource.meta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-</t>
-  </si>
-  <si>
-    <t>Encounter.implicitRules</t>
-  </si>
-  <si>
-    <t xml:space="preserve">uri
-</t>
-  </si>
-  <si>
-    <t>A set of rules under which this content was created</t>
-  </si>
-  <si>
-    <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content. Often, this is a reference to an implementation guide that defines the special rules along with other profiles etc.</t>
-  </si>
-  <si>
-    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. Often, when used, the URL is a reference to an implementation guide that defines these special rules as part of it's narrative along with other profiles, value sets, etc.</t>
-  </si>
-  <si>
-    <t>Resource.implicitRules</t>
-  </si>
-  <si>
-    <t>Encounter.language</t>
-  </si>
-  <si>
-    <t xml:space="preserve">code
-</t>
-  </si>
-  <si>
-    <t>Language of the resource content</t>
-  </si>
-  <si>
-    <t>The base language in which the resource is written.</t>
-  </si>
-  <si>
-    <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource. Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
-  </si>
-  <si>
-    <t>preferred</t>
-  </si>
-  <si>
-    <t>A human language.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
-  </si>
-  <si>
-    <t>Resource.language</t>
-  </si>
-  <si>
-    <t>Encounter.text</t>
-  </si>
-  <si>
-    <t>narrative
-htmlxhtmldisplay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Narrative
-</t>
-  </si>
-  <si>
-    <t>Text summary of the resource, for human interpretation</t>
-  </si>
-  <si>
-    <t>A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
-  </si>
-  <si>
-    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
-  </si>
-  <si>
-    <t>DomainResource.text</t>
-  </si>
-  <si>
-    <t>Act.text?</t>
-  </si>
-  <si>
-    <t>Encounter.contained</t>
-  </si>
-  <si>
-    <t>inline resources
-anonymous resourcescontained resources</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Resource
-</t>
-  </si>
-  <si>
-    <t>Contained, inline Resources</t>
-  </si>
-  <si>
-    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
-  </si>
-  <si>
-    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags In their meta elements, but SHALL NOT have security labels.</t>
-  </si>
-  <si>
-    <t>DomainResource.contained</t>
-  </si>
-  <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t>Encounter.extension</t>
-  </si>
-  <si>
-    <t>extensions
-user content</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension
-</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t>DomainResource.extension</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
-    <t>Encounter.modifierExtension</t>
-  </si>
-  <si>
-    <t>Extensions that cannot be ignored</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
-Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
-  </si>
-  <si>
-    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
-  </si>
-  <si>
-    <t>DomainResource.modifierExtension</t>
-  </si>
-  <si>
-    <t>Encounter.identifier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Identifier
-</t>
-  </si>
-  <si>
-    <t>Identifier(s) by which this encounter is known</t>
-  </si>
-  <si>
-    <t>Identifier(s) by which this encounter is known.</t>
-  </si>
-  <si>
-    <t>Event.identifier</t>
-  </si>
-  <si>
-    <t>.id</t>
-  </si>
-  <si>
-    <t>FiveWs.identifier</t>
-  </si>
-  <si>
-    <t>PV1-19</t>
-  </si>
-  <si>
-    <t>Encounter.status</t>
-  </si>
-  <si>
-    <t>planned | arrived | triaged | in-progress | onleave | finished | cancelled +</t>
-  </si>
-  <si>
-    <t>planned | arrived | triaged | in-progress | onleave | finished | cancelled +.</t>
-  </si>
-  <si>
-    <t>Note that internal business rules will determine the appropriate transitions that may occur between statuses (and also classes).</t>
-  </si>
-  <si>
-    <t>required</t>
-  </si>
-  <si>
-    <t>Current state of the encounter.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/encounter-status|4.0.1</t>
-  </si>
-  <si>
-    <t>Event.status</t>
-  </si>
-  <si>
-    <t>.statusCode</t>
-  </si>
-  <si>
-    <t>FiveWs.status</t>
-  </si>
-  <si>
-    <t>No clear equivalent in HL7 v2; active/finished could be inferred from PV1-44, PV1-45, PV2-24; inactive could be inferred from PV2-16</t>
-  </si>
-  <si>
-    <t>Encounter.statusHistory</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BackboneElement
-</t>
-  </si>
-  <si>
-    <t>List of past encounter statuses</t>
-  </si>
-  <si>
-    <t>The status history permits the encounter resource to contain the status history without needing to read through the historical versions of the resource, or even have the server store them.</t>
-  </si>
-  <si>
-    <t>The current status is always found in the current version of the resource, not the status history.</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
-    <t>Encounter.statusHistory.id</t>
   </si>
   <si>
     <t>Unique id for inter-element referencing</t>
@@ -3272,13 +3276,13 @@
         <v>79</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>88</v>
+        <v>169</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
@@ -3329,7 +3333,7 @@
         <v>79</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>77</v>
@@ -3358,7 +3362,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -3387,7 +3391,7 @@
         <v>133</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="M15" t="s" s="2">
         <v>135</v>
@@ -3440,7 +3444,7 @@
         <v>79</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>77</v>
@@ -3469,11 +3473,11 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
@@ -3495,10 +3499,10 @@
         <v>132</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="M16" t="s" s="2">
         <v>135</v>
@@ -3553,7 +3557,7 @@
         <v>79</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>77</v>
@@ -3582,7 +3586,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -3662,7 +3666,7 @@
         <v>79</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>86</v>
@@ -3691,7 +3695,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3714,13 +3718,13 @@
         <v>79</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
@@ -3771,7 +3775,7 @@
         <v>79</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>86</v>
@@ -3800,7 +3804,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -3823,13 +3827,13 @@
         <v>87</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
@@ -3856,13 +3860,13 @@
         <v>79</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Z19" t="s" s="2">
         <v>79</v>
@@ -3880,7 +3884,7 @@
         <v>79</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>86</v>
@@ -3898,18 +3902,18 @@
         <v>79</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -3935,10 +3939,10 @@
         <v>163</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -3989,7 +3993,7 @@
         <v>79</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>77</v>
@@ -4018,7 +4022,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -4041,13 +4045,13 @@
         <v>79</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>88</v>
+        <v>169</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -4098,7 +4102,7 @@
         <v>79</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>77</v>
@@ -4127,7 +4131,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -4156,7 +4160,7 @@
         <v>133</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="M22" t="s" s="2">
         <v>135</v>
@@ -4209,7 +4213,7 @@
         <v>79</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>77</v>
@@ -4238,11 +4242,11 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
@@ -4264,10 +4268,10 @@
         <v>132</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="M23" t="s" s="2">
         <v>135</v>
@@ -4322,7 +4326,7 @@
         <v>79</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>77</v>
@@ -4351,7 +4355,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4374,13 +4378,13 @@
         <v>79</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -4407,13 +4411,13 @@
         <v>79</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Z24" t="s" s="2">
         <v>79</v>
@@ -4431,7 +4435,7 @@
         <v>79</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>86</v>
@@ -4460,7 +4464,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4483,13 +4487,13 @@
         <v>79</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
@@ -4540,7 +4544,7 @@
         <v>79</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>86</v>
@@ -4569,7 +4573,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4592,16 +4596,16 @@
         <v>87</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
@@ -4627,13 +4631,13 @@
         <v>79</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Z26" t="s" s="2">
         <v>79</v>
@@ -4651,7 +4655,7 @@
         <v>79</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>77</v>
@@ -4666,21 +4670,21 @@
         <v>98</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4703,13 +4707,13 @@
         <v>87</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
@@ -4736,13 +4740,13 @@
         <v>79</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Z27" t="s" s="2">
         <v>79</v>
@@ -4760,7 +4764,7 @@
         <v>79</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>77</v>
@@ -4775,7 +4779,7 @@
         <v>98</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>167</v>
@@ -4784,12 +4788,12 @@
         <v>79</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4812,13 +4816,13 @@
         <v>79</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
@@ -4845,13 +4849,13 @@
         <v>79</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Z28" t="s" s="2">
         <v>79</v>
@@ -4869,7 +4873,7 @@
         <v>79</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>77</v>
@@ -4887,22 +4891,22 @@
         <v>79</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
@@ -4921,16 +4925,16 @@
         <v>87</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
@@ -4980,7 +4984,7 @@
         <v>79</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>77</v>
@@ -4995,21 +4999,21 @@
         <v>98</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5032,13 +5036,13 @@
         <v>87</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
@@ -5089,7 +5093,7 @@
         <v>79</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>77</v>
@@ -5104,25 +5108,25 @@
         <v>98</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>167</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
@@ -5141,13 +5145,13 @@
         <v>79</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -5198,7 +5202,7 @@
         <v>79</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>77</v>
@@ -5213,10 +5217,10 @@
         <v>98</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>79</v>
@@ -5227,7 +5231,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5253,10 +5257,10 @@
         <v>163</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
@@ -5307,7 +5311,7 @@
         <v>79</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>77</v>
@@ -5322,21 +5326,21 @@
         <v>98</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5359,13 +5363,13 @@
         <v>79</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>88</v>
+        <v>169</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
@@ -5416,7 +5420,7 @@
         <v>79</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>77</v>
@@ -5445,7 +5449,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5474,7 +5478,7 @@
         <v>133</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="M34" t="s" s="2">
         <v>135</v>
@@ -5527,7 +5531,7 @@
         <v>79</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>77</v>
@@ -5556,11 +5560,11 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
@@ -5582,10 +5586,10 @@
         <v>132</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="M35" t="s" s="2">
         <v>135</v>
@@ -5640,7 +5644,7 @@
         <v>79</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>77</v>
@@ -5669,7 +5673,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5692,16 +5696,16 @@
         <v>87</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
@@ -5727,13 +5731,13 @@
         <v>79</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Z36" t="s" s="2">
         <v>79</v>
@@ -5751,7 +5755,7 @@
         <v>79</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>77</v>
@@ -5766,21 +5770,21 @@
         <v>98</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5803,13 +5807,13 @@
         <v>79</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -5860,7 +5864,7 @@
         <v>79</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>77</v>
@@ -5878,18 +5882,18 @@
         <v>79</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5912,13 +5916,13 @@
         <v>87</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -5969,7 +5973,7 @@
         <v>79</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>77</v>
@@ -5984,21 +5988,21 @@
         <v>98</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6021,13 +6025,13 @@
         <v>87</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
@@ -6078,7 +6082,7 @@
         <v>79</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>77</v>
@@ -6093,21 +6097,21 @@
         <v>98</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6130,16 +6134,16 @@
         <v>79</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
@@ -6189,7 +6193,7 @@
         <v>79</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>77</v>
@@ -6204,21 +6208,21 @@
         <v>98</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6241,16 +6245,16 @@
         <v>79</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
@@ -6300,7 +6304,7 @@
         <v>79</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>77</v>
@@ -6315,25 +6319,25 @@
         <v>98</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
@@ -6352,16 +6356,16 @@
         <v>87</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
@@ -6390,10 +6394,10 @@
         <v>110</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="Z42" t="s" s="2">
         <v>79</v>
@@ -6411,7 +6415,7 @@
         <v>79</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>77</v>
@@ -6426,25 +6430,25 @@
         <v>98</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
@@ -6463,16 +6467,16 @@
         <v>87</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
@@ -6522,7 +6526,7 @@
         <v>79</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>77</v>
@@ -6537,21 +6541,21 @@
         <v>98</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6577,10 +6581,10 @@
         <v>163</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
@@ -6631,7 +6635,7 @@
         <v>79</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>77</v>
@@ -6649,7 +6653,7 @@
         <v>79</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>79</v>
@@ -6660,7 +6664,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6683,13 +6687,13 @@
         <v>79</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>88</v>
+        <v>169</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
@@ -6740,7 +6744,7 @@
         <v>79</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>77</v>
@@ -6769,7 +6773,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6798,7 +6802,7 @@
         <v>133</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="M46" t="s" s="2">
         <v>135</v>
@@ -6851,7 +6855,7 @@
         <v>79</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>77</v>
@@ -6880,11 +6884,11 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
@@ -6906,10 +6910,10 @@
         <v>132</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="M47" t="s" s="2">
         <v>135</v>
@@ -6964,7 +6968,7 @@
         <v>79</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>77</v>
@@ -6993,11 +6997,11 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
@@ -7016,16 +7020,16 @@
         <v>87</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
@@ -7075,7 +7079,7 @@
         <v>79</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>86</v>
@@ -7090,21 +7094,21 @@
         <v>98</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7127,13 +7131,13 @@
         <v>79</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
@@ -7163,10 +7167,10 @@
         <v>110</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="Z49" t="s" s="2">
         <v>79</v>
@@ -7184,7 +7188,7 @@
         <v>79</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>77</v>
@@ -7213,7 +7217,7 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7236,13 +7240,13 @@
         <v>79</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
@@ -7293,7 +7297,7 @@
         <v>79</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>77</v>
@@ -7311,7 +7315,7 @@
         <v>79</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>79</v>
@@ -7322,7 +7326,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7345,16 +7349,16 @@
         <v>79</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
@@ -7404,7 +7408,7 @@
         <v>79</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>77</v>
@@ -7422,7 +7426,7 @@
         <v>79</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>79</v>
@@ -7433,7 +7437,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7459,13 +7463,13 @@
         <v>163</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
@@ -7515,7 +7519,7 @@
         <v>79</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>77</v>
@@ -7533,7 +7537,7 @@
         <v>79</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>79</v>
@@ -7544,7 +7548,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7567,13 +7571,13 @@
         <v>79</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>88</v>
+        <v>169</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="M53" s="2"/>
       <c r="N53" s="2"/>
@@ -7624,7 +7628,7 @@
         <v>79</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>77</v>
@@ -7653,7 +7657,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7682,7 +7686,7 @@
         <v>133</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="M54" t="s" s="2">
         <v>135</v>
@@ -7735,7 +7739,7 @@
         <v>79</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>77</v>
@@ -7764,11 +7768,11 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
@@ -7790,10 +7794,10 @@
         <v>132</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="M55" t="s" s="2">
         <v>135</v>
@@ -7848,7 +7852,7 @@
         <v>79</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>77</v>
@@ -7877,7 +7881,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -7903,10 +7907,10 @@
         <v>144</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="M56" s="2"/>
       <c r="N56" s="2"/>
@@ -7957,7 +7961,7 @@
         <v>79</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>77</v>
@@ -7981,12 +7985,12 @@
         <v>79</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8009,13 +8013,13 @@
         <v>79</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="M57" s="2"/>
       <c r="N57" s="2"/>
@@ -8066,7 +8070,7 @@
         <v>79</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>77</v>
@@ -8084,7 +8088,7 @@
         <v>79</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>79</v>
@@ -8095,7 +8099,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8118,13 +8122,13 @@
         <v>79</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="M58" s="2"/>
       <c r="N58" s="2"/>
@@ -8154,10 +8158,10 @@
         <v>110</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="Z58" t="s" s="2">
         <v>79</v>
@@ -8175,7 +8179,7 @@
         <v>79</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>77</v>
@@ -8193,18 +8197,18 @@
         <v>79</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8227,13 +8231,13 @@
         <v>79</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="M59" s="2"/>
       <c r="N59" s="2"/>
@@ -8260,13 +8264,13 @@
         <v>79</v>
       </c>
       <c r="W59" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="Z59" t="s" s="2">
         <v>79</v>
@@ -8284,7 +8288,7 @@
         <v>79</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>77</v>
@@ -8308,12 +8312,12 @@
         <v>79</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8336,19 +8340,19 @@
         <v>79</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="O60" t="s" s="2">
         <v>79</v>
@@ -8373,13 +8377,13 @@
         <v>79</v>
       </c>
       <c r="W60" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="Z60" t="s" s="2">
         <v>79</v>
@@ -8397,7 +8401,7 @@
         <v>79</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>77</v>
@@ -8415,18 +8419,18 @@
         <v>79</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8449,13 +8453,13 @@
         <v>79</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="M61" s="2"/>
       <c r="N61" s="2"/>
@@ -8485,10 +8489,10 @@
         <v>110</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="Z61" t="s" s="2">
         <v>79</v>
@@ -8506,7 +8510,7 @@
         <v>79</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>77</v>
@@ -8524,18 +8528,18 @@
         <v>79</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -8558,13 +8562,13 @@
         <v>79</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="M62" s="2"/>
       <c r="N62" s="2"/>
@@ -8594,10 +8598,10 @@
         <v>110</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="Z62" t="s" s="2">
         <v>79</v>
@@ -8615,7 +8619,7 @@
         <v>79</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>77</v>
@@ -8633,18 +8637,18 @@
         <v>79</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -8667,13 +8671,13 @@
         <v>79</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="M63" s="2"/>
       <c r="N63" s="2"/>
@@ -8724,7 +8728,7 @@
         <v>79</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>77</v>
@@ -8742,18 +8746,18 @@
         <v>79</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -8776,13 +8780,13 @@
         <v>79</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="M64" s="2"/>
       <c r="N64" s="2"/>
@@ -8809,13 +8813,13 @@
         <v>79</v>
       </c>
       <c r="W64" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="Y64" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="Z64" t="s" s="2">
         <v>79</v>
@@ -8833,7 +8837,7 @@
         <v>79</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>77</v>
@@ -8851,18 +8855,18 @@
         <v>79</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -8888,13 +8892,13 @@
         <v>163</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
@@ -8944,7 +8948,7 @@
         <v>79</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>77</v>
@@ -8962,7 +8966,7 @@
         <v>79</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>79</v>
@@ -8973,7 +8977,7 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -8996,13 +9000,13 @@
         <v>79</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>88</v>
+        <v>169</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="M66" s="2"/>
       <c r="N66" s="2"/>
@@ -9053,7 +9057,7 @@
         <v>79</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>77</v>
@@ -9082,7 +9086,7 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -9111,7 +9115,7 @@
         <v>133</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="M67" t="s" s="2">
         <v>135</v>
@@ -9164,7 +9168,7 @@
         <v>79</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>77</v>
@@ -9193,11 +9197,11 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D68" s="2"/>
       <c r="E68" t="s" s="2">
@@ -9219,10 +9223,10 @@
         <v>132</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="M68" t="s" s="2">
         <v>135</v>
@@ -9277,7 +9281,7 @@
         <v>79</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>77</v>
@@ -9306,7 +9310,7 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -9329,13 +9333,13 @@
         <v>79</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="M69" s="2"/>
       <c r="N69" s="2"/>
@@ -9386,7 +9390,7 @@
         <v>79</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>86</v>
@@ -9401,21 +9405,21 @@
         <v>98</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -9441,13 +9445,13 @@
         <v>106</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" t="s" s="2">
@@ -9476,10 +9480,10 @@
         <v>155</v>
       </c>
       <c r="X70" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="Y70" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="Z70" t="s" s="2">
         <v>79</v>
@@ -9497,7 +9501,7 @@
         <v>79</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>77</v>
@@ -9515,7 +9519,7 @@
         <v>79</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="AL70" t="s" s="2">
         <v>79</v>
@@ -9526,7 +9530,7 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -9549,16 +9553,16 @@
         <v>79</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" t="s" s="2">
@@ -9584,13 +9588,13 @@
         <v>79</v>
       </c>
       <c r="W71" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="X71" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="Y71" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="Z71" t="s" s="2">
         <v>79</v>
@@ -9608,7 +9612,7 @@
         <v>79</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>77</v>
@@ -9637,7 +9641,7 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -9660,13 +9664,13 @@
         <v>79</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="M72" s="2"/>
       <c r="N72" s="2"/>
@@ -9717,7 +9721,7 @@
         <v>79</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>77</v>
@@ -9735,7 +9739,7 @@
         <v>79</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AL72" t="s" s="2">
         <v>79</v>
@@ -9746,7 +9750,7 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -9769,13 +9773,13 @@
         <v>79</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="M73" s="2"/>
       <c r="N73" s="2"/>
@@ -9826,7 +9830,7 @@
         <v>79</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>77</v>
@@ -9841,21 +9845,21 @@
         <v>98</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="AL73" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -9878,16 +9882,16 @@
         <v>79</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="N74" s="2"/>
       <c r="O74" t="s" s="2">
@@ -9937,7 +9941,7 @@
         <v>79</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>77</v>
@@ -9952,10 +9956,10 @@
         <v>98</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="AL74" t="s" s="2">
         <v>79</v>

--- a/branches/master/StructureDefinition-coverage-pemh-profile.xlsx
+++ b/branches/master/StructureDefinition-coverage-pemh-profile.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://example.org/StructureDefinition/coverage-pemh-profile</t>
+    <t>http://example.com/fhir/example/StructureDefinition/coverage-pemh-profile</t>
   </si>
   <si>
     <t>Version</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-09T14:33:47+00:00</t>
+    <t>2023-02-09T20:39:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-coverage-pemh-profile.xlsx
+++ b/branches/master/StructureDefinition-coverage-pemh-profile.xlsx
@@ -9,11 +9,14 @@
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AQ$73</definedName>
+  </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1616" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2869" uniqueCount="462">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-09T22:10:16+00:00</t>
+    <t>2023-02-10T09:10:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -467,65 +470,505 @@
 </t>
   </si>
   <si>
+    <t>Será obrigatório somente se for uma Entidade Responsável.Número de Beneficiário do Utente na Entidade</t>
+  </si>
+  <si>
+    <t>The main (and possibly only) identifier for the coverage - often referred to as a Member Id, Certificate number, Personal Health Number or Case ID. May be constructed as the concatination of the Coverage.SubscriberID and the Coverage.dependant.</t>
+  </si>
+  <si>
+    <t>This value may uniquely identify the coverage or it may be used in conjunction with the additional identifiers below.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:type.coding}
+</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>Event.identifier</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>C02</t>
+  </si>
+  <si>
+    <t>IN1-2</t>
+  </si>
+  <si>
+    <t>C.32, C.33, C.39</t>
+  </si>
+  <si>
+    <t>Coverage.identifier:NBU</t>
+  </si>
+  <si>
+    <t>NBU</t>
+  </si>
+  <si>
     <t>The primary coverage ID</t>
   </si>
   <si>
-    <t>The main (and possibly only) identifier for the coverage - often referred to as a Member Id, Certificate number, Personal Health Number or Case ID. May be constructed as the concatination of the Coverage.SubscriberID and the Coverage.dependant.</t>
-  </si>
-  <si>
-    <t>This value may uniquely identify the coverage or it may be used in conjunction with the additional identifiers below.</t>
-  </si>
-  <si>
-    <t>Event.identifier</t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>C02</t>
-  </si>
-  <si>
-    <t>IN1-2</t>
-  </si>
-  <si>
-    <t>C.32, C.33, C.39</t>
-  </si>
-  <si>
-    <t>Coverage.status</t>
-  </si>
-  <si>
-    <t>active | cancelled | draft | entered-in-error</t>
-  </si>
-  <si>
-    <t>The status of the resource instance.</t>
-  </si>
-  <si>
-    <t>This element is labeled as a modifier because the status contains the code entered-in-error that marks the coverage as not currently valid.</t>
+    <t>Coverage.identifier:NBU.id</t>
+  </si>
+  <si>
+    <t>Coverage.identifier.id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
+  </si>
+  <si>
+    <t>xml:id (or equivalent in JSON)</t>
+  </si>
+  <si>
+    <t>unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>Coverage.identifier:NBU.extension</t>
+  </si>
+  <si>
+    <t>Coverage.identifier.extension</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. In order to make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>Coverage.identifier:NBU.use</t>
+  </si>
+  <si>
+    <t>Coverage.identifier.use</t>
+  </si>
+  <si>
+    <t>usual | official | temp | secondary (If known)</t>
+  </si>
+  <si>
+    <t>The purpose of this identifier.</t>
+  </si>
+  <si>
+    <t>This is labeled as "Is Modifier" because applications should not mistake a temporary id for a permanent one. Applications can assume that an identifier is permanent unless it explicitly says that it is temporary.</t>
+  </si>
+  <si>
+    <t>Allows the appropriate identifier for a particular context of use to be selected from among a set of identifiers.</t>
   </si>
   <si>
     <t>required</t>
   </si>
   <si>
-    <t>A code specifying the state of the resource instance.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/fm-status</t>
-  </si>
-  <si>
-    <t>Event.status</t>
-  </si>
-  <si>
-    <t>status</t>
-  </si>
-  <si>
-    <t>Coverage.type</t>
+    <t>Identifies the purpose for this identifier, if known .</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/identifier-use</t>
+  </si>
+  <si>
+    <t>Identifier.use</t>
+  </si>
+  <si>
+    <t>Role.code or implied by context</t>
+  </si>
+  <si>
+    <t>Coverage.identifier:NBU.type</t>
+  </si>
+  <si>
+    <t>Coverage.identifier.type</t>
   </si>
   <si>
     <t xml:space="preserve">CodeableConcept
 </t>
   </si>
   <si>
-    <t>Type of coverage such as medical or accident</t>
+    <t>Description of identifier</t>
+  </si>
+  <si>
+    <t>A coded type for the identifier that can be used to determine which identifier to use for a specific purpose.</t>
+  </si>
+  <si>
+    <t>This element deals only with general categories of identifiers.  It SHOULD not be used for codes that correspond 1..1 with the Identifier.system. Some identifiers may fall into multiple categories due to common usage. 
+Where the system is known, a type is unnecessary because the type is always part of the system definition. However systems often need to handle identifiers where the system is not known. There is not a 1:1 relationship between type and system, since many different systems have the same type.</t>
+  </si>
+  <si>
+    <t>Allows users to make use of identifiers when the identifier system is not known.</t>
+  </si>
+  <si>
+    <t>A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/identifier-type</t>
+  </si>
+  <si>
+    <t>Identifier.type</t>
+  </si>
+  <si>
+    <t>CX.5</t>
+  </si>
+  <si>
+    <t>Coverage.identifier:NBU.type.id</t>
+  </si>
+  <si>
+    <t>Coverage.identifier.type.id</t>
+  </si>
+  <si>
+    <t>Coverage.identifier:NBU.type.extension</t>
+  </si>
+  <si>
+    <t>Coverage.identifier.type.extension</t>
+  </si>
+  <si>
+    <t>Coverage.identifier:NBU.type.coding</t>
+  </si>
+  <si>
+    <t>Coverage.identifier.type.coding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coding
+</t>
+  </si>
+  <si>
+    <t>Code defined by a terminology system</t>
+  </si>
+  <si>
+    <t>A reference to a code defined by a terminology system.</t>
+  </si>
+  <si>
+    <t>Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labeled as UserSelected = true.</t>
+  </si>
+  <si>
+    <t>Allows for translations and alternate encodings within a code system.  Also supports communication of the same instance to systems requiring different encodings.</t>
+  </si>
+  <si>
+    <t>CodeableConcept.coding</t>
+  </si>
+  <si>
+    <t>union(., ./translation)</t>
+  </si>
+  <si>
+    <t>C*E.1-8, C*E.10-22</t>
+  </si>
+  <si>
+    <t>Coverage.identifier:NBU.type.coding.id</t>
+  </si>
+  <si>
+    <t>Coverage.identifier.type.coding.id</t>
+  </si>
+  <si>
+    <t>Coverage.identifier:NBU.type.coding.extension</t>
+  </si>
+  <si>
+    <t>Coverage.identifier.type.coding.extension</t>
+  </si>
+  <si>
+    <t>Coverage.identifier:NBU.type.coding.system</t>
+  </si>
+  <si>
+    <t>Coverage.identifier.type.coding.system</t>
+  </si>
+  <si>
+    <t>Identity of the terminology system</t>
+  </si>
+  <si>
+    <t>The identification of the code system that defines the meaning of the symbol in the code.</t>
+  </si>
+  <si>
+    <t>The URI may be an OID (urn:oid:...) or a UUID (urn:uuid:...).  OIDs and UUIDs SHALL be references to the HL7 OID registry. Otherwise, the URI should come from HL7's list of FHIR defined special URIs or it should de-reference to some definition that establish the system clearly and unambiguously.</t>
+  </si>
+  <si>
+    <t>Need to be unambiguous about the source of the definition of the symbol.</t>
+  </si>
+  <si>
+    <t>Coding.system</t>
+  </si>
+  <si>
+    <t>./codeSystem</t>
+  </si>
+  <si>
+    <t>C*E.3</t>
+  </si>
+  <si>
+    <t>Coverage.identifier:NBU.type.coding.version</t>
+  </si>
+  <si>
+    <t>Coverage.identifier.type.coding.version</t>
+  </si>
+  <si>
+    <t>Version of the system - if relevant</t>
+  </si>
+  <si>
+    <t>The version of the code system which was used when choosing this code. Note that a well-maintained code system does not need the version reported, because the meaning of codes is consistent across versions. However this cannot consistently be assured. and when the meaning is not guaranteed to be consistent, the version SHOULD be exchanged.</t>
+  </si>
+  <si>
+    <t>Where the terminology does not clearly define what string should be used to identify code system versions, the recommendation is to use the date (expressed in FHIR date format) on which that version was officially published as the version date.</t>
+  </si>
+  <si>
+    <t>Coding.version</t>
+  </si>
+  <si>
+    <t>./codeSystemVersion</t>
+  </si>
+  <si>
+    <t>C*E.7</t>
+  </si>
+  <si>
+    <t>Coverage.identifier:NBU.type.coding.code</t>
+  </si>
+  <si>
+    <t>Coverage.identifier.type.coding.code</t>
+  </si>
+  <si>
+    <t>Symbol in syntax defined by the system</t>
+  </si>
+  <si>
+    <t>A symbol in syntax defined by the system. The symbol may be a predefined code or an expression in a syntax defined by the coding system (e.g. post-coordination).</t>
+  </si>
+  <si>
+    <t>Need to refer to a particular code in the system.</t>
+  </si>
+  <si>
+    <t>Coding.code</t>
+  </si>
+  <si>
+    <t>./code</t>
+  </si>
+  <si>
+    <t>C*E.1</t>
+  </si>
+  <si>
+    <t>Coverage.identifier:NBU.type.coding.display</t>
+  </si>
+  <si>
+    <t>Coverage.identifier.type.coding.display</t>
+  </si>
+  <si>
+    <t>Representation defined by the system</t>
+  </si>
+  <si>
+    <t>A representation of the meaning of the code in the system, following the rules of the system.</t>
+  </si>
+  <si>
+    <t>Need to be able to carry a human-readable meaning of the code for readers that do not know  the system.</t>
+  </si>
+  <si>
+    <t>Coding.display</t>
+  </si>
+  <si>
+    <t>CV.displayName</t>
+  </si>
+  <si>
+    <t>C*E.2 - but note this is not well followed</t>
+  </si>
+  <si>
+    <t>Coverage.identifier:NBU.type.coding.userSelected</t>
+  </si>
+  <si>
+    <t>Coverage.identifier.type.coding.userSelected</t>
+  </si>
+  <si>
+    <t xml:space="preserve">boolean
+</t>
+  </si>
+  <si>
+    <t>If this coding was chosen directly by the user</t>
+  </si>
+  <si>
+    <t>Indicates that this coding was chosen by a user directly - i.e. off a pick list of available items (codes or displays).</t>
+  </si>
+  <si>
+    <t>Amongst a set of alternatives, a directly chosen code is the most appropriate starting point for new translations. There is some ambiguity about what exactly 'directly chosen' implies, and trading partner agreement may be needed to clarify the use of this element and its consequences more completely.</t>
+  </si>
+  <si>
+    <t>This has been identified as a clinical safety criterium - that this exact system/code pair was chosen explicitly, rather than inferred by the system based on some rules or language processing.</t>
+  </si>
+  <si>
+    <t>Coding.userSelected</t>
+  </si>
+  <si>
+    <t>CD.codingRationale</t>
+  </si>
+  <si>
+    <t>Sometimes implied by being first</t>
+  </si>
+  <si>
+    <t>Coverage.identifier:NBU.type.text</t>
+  </si>
+  <si>
+    <t>Coverage.identifier.type.text</t>
+  </si>
+  <si>
+    <t>Plain text representation of the concept</t>
+  </si>
+  <si>
+    <t>A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.</t>
+  </si>
+  <si>
+    <t>Very often the text is the same as a displayName of one of the codings.</t>
+  </si>
+  <si>
+    <t>The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.</t>
+  </si>
+  <si>
+    <t>CodeableConcept.text</t>
+  </si>
+  <si>
+    <t>./originalText[mediaType/code="text/plain"]/data</t>
+  </si>
+  <si>
+    <t>C*E.9. But note many systems use C*E.2 for this</t>
+  </si>
+  <si>
+    <t>Coverage.identifier:NBU.system</t>
+  </si>
+  <si>
+    <t>Coverage.identifier.system</t>
+  </si>
+  <si>
+    <t>The namespace for the identifier value</t>
+  </si>
+  <si>
+    <t>Establishes the namespace for the value - that is, a URL that describes a set values that are unique.</t>
+  </si>
+  <si>
+    <t>There are many sets  of identifiers.  To perform matching of two identifiers, we need to know what set we're dealing with. The system identifies a particular set of unique identifiers.</t>
+  </si>
+  <si>
+    <t>http://spms.min-saude.pt/iop/identifiers/coverage</t>
+  </si>
+  <si>
+    <t>http://www.acme.com/identifiers/patient</t>
+  </si>
+  <si>
+    <t>Identifier.system</t>
+  </si>
+  <si>
+    <t>II.root or Role.id.root</t>
+  </si>
+  <si>
+    <t>CX.4 / EI-2-4</t>
+  </si>
+  <si>
+    <t>Coverage.identifier:NBU.value</t>
+  </si>
+  <si>
+    <t>Coverage.identifier.value</t>
+  </si>
+  <si>
+    <t>The value that is unique</t>
+  </si>
+  <si>
+    <t>The portion of the identifier typically relevant to the user and which is unique within the context of the system.</t>
+  </si>
+  <si>
+    <t>If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [Rendered Value extension](http://hl7.org/fhir/STU3/extension-rendered-value.html).</t>
+  </si>
+  <si>
+    <t>123456</t>
+  </si>
+  <si>
+    <t>Identifier.value</t>
+  </si>
+  <si>
+    <t>II.extension or II.root if system indicates OID or GUID (Or Role.id.extension or root)</t>
+  </si>
+  <si>
+    <t>CX.1 / EI.1</t>
+  </si>
+  <si>
+    <t>Coverage.identifier:NBU.period</t>
+  </si>
+  <si>
+    <t>Coverage.identifier.period</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Period
+</t>
+  </si>
+  <si>
+    <t>Time period when id is/was valid for use</t>
+  </si>
+  <si>
+    <t>Time period during which identifier is/was valid for use.</t>
+  </si>
+  <si>
+    <t>Identifier.period</t>
+  </si>
+  <si>
+    <t>Role.effectiveTime or implied by context</t>
+  </si>
+  <si>
+    <t>CX.7 + CX.8</t>
+  </si>
+  <si>
+    <t>Coverage.identifier:NBU.assigner</t>
+  </si>
+  <si>
+    <t>Coverage.identifier.assigner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Organization)
+</t>
+  </si>
+  <si>
+    <t>Organization that issued id (may be just text)</t>
+  </si>
+  <si>
+    <t>Organization that issued/manages the identifier.</t>
+  </si>
+  <si>
+    <t>The Identifier.assigner may omit the .reference element and only contain a .display element reflecting the name or other textual information about the assigning organization.</t>
+  </si>
+  <si>
+    <t>Identifier.assigner</t>
+  </si>
+  <si>
+    <t>II.assigningAuthorityName but note that this is an improper use by the definition of the field.  Also Role.scoper</t>
+  </si>
+  <si>
+    <t>CX.4 / (CX.4,CX.9,CX.10)</t>
+  </si>
+  <si>
+    <t>Coverage.status</t>
+  </si>
+  <si>
+    <t>active | cancelled | draft | entered-in-error</t>
+  </si>
+  <si>
+    <t>The status of the resource instance.</t>
+  </si>
+  <si>
+    <t>This element is labeled as a modifier because the status contains the code entered-in-error that marks the coverage as not currently valid.</t>
+  </si>
+  <si>
+    <t>A code specifying the state of the resource instance.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/fm-status</t>
+  </si>
+  <si>
+    <t>Event.status</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>Coverage.type</t>
+  </si>
+  <si>
+    <t>Designação da Entidade Responsável, enviar outros códigos se necessário, com o respetivo sistema de codificação [CÓDIGO (EFR) E DESIGNAÇÃO (EFR)]</t>
   </si>
   <si>
     <t>The type of coverage: social program, medical plan, accident coverage (workers compensation, auto), group health or payment by an individual or organization.</t>
@@ -547,6 +990,79 @@
   </si>
   <si>
     <t>IN1-15</t>
+  </si>
+  <si>
+    <t>Coverage.type.id</t>
+  </si>
+  <si>
+    <t>Coverage.type.extension</t>
+  </si>
+  <si>
+    <t>Coverage.type.coding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:code}
+</t>
+  </si>
+  <si>
+    <t>Coverage.type.coding:ExtendedHealthcare</t>
+  </si>
+  <si>
+    <t>ExtendedHealthcare</t>
+  </si>
+  <si>
+    <t>Coverage.type.coding:ExtendedHealthcare.id</t>
+  </si>
+  <si>
+    <t>Coverage.type.coding.id</t>
+  </si>
+  <si>
+    <t>Coverage.type.coding:ExtendedHealthcare.extension</t>
+  </si>
+  <si>
+    <t>Coverage.type.coding.extension</t>
+  </si>
+  <si>
+    <t>Coverage.type.coding:ExtendedHealthcare.system</t>
+  </si>
+  <si>
+    <t>Coverage.type.coding.system</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/v3/ActCode</t>
+  </si>
+  <si>
+    <t>Coverage.type.coding:ExtendedHealthcare.version</t>
+  </si>
+  <si>
+    <t>Coverage.type.coding.version</t>
+  </si>
+  <si>
+    <t>Coverage.type.coding:ExtendedHealthcare.code</t>
+  </si>
+  <si>
+    <t>Coverage.type.coding.code</t>
+  </si>
+  <si>
+    <t>EHCPOL</t>
+  </si>
+  <si>
+    <t>Coverage.type.coding:ExtendedHealthcare.display</t>
+  </si>
+  <si>
+    <t>Coverage.type.coding.display</t>
+  </si>
+  <si>
+    <t>Extended healthcare</t>
+  </si>
+  <si>
+    <t>Coverage.type.coding:ExtendedHealthcare.userSelected</t>
+  </si>
+  <si>
+    <t>Coverage.type.coding.userSelected</t>
+  </si>
+  <si>
+    <t>Coverage.type.text</t>
   </si>
   <si>
     <t>Coverage.policyHolder</t>
@@ -590,11 +1106,7 @@
     <t>Coverage.subscriberId</t>
   </si>
   <si>
-    <t xml:space="preserve">string
-</t>
-  </si>
-  <si>
-    <t>ID assigned to the Subscriber</t>
+    <t>Número do documento de direito [NÚMERO (CARTÃO)]</t>
   </si>
   <si>
     <t>The insurer assigned ID for the Subscriber.</t>
@@ -607,7 +1119,7 @@
 </t>
   </si>
   <si>
-    <t>Plan Beneficiary</t>
+    <t>Referência para um resource que contém informações do utente</t>
   </si>
   <si>
     <t>The party who benefits from the insurance coverage., the patient when services are provided.</t>
@@ -643,11 +1155,7 @@
     <t>Coverage.period</t>
   </si>
   <si>
-    <t xml:space="preserve">Period
-</t>
-  </si>
-  <si>
-    <t>Coverage start and end dates</t>
+    <t>Este elemento representa a data de emissão do documento de direito representado pelo "start" e a data de validade do documento de direito representado pelo "end".</t>
   </si>
   <si>
     <t>Time period during which the coverage is in force. A missing start date indicates the start date isn't known, a missing end date means the coverage is continuing to be in force.</t>
@@ -669,7 +1177,7 @@
 </t>
   </si>
   <si>
-    <t>Identifier for the plan or agreement issuer</t>
+    <t>Referência para um resource que contém informações da Entidad e Financeira Responsável</t>
   </si>
   <si>
     <t>The program or plan underwriter or payor including both insurance and non-insurance agreements, such as patient-pay agreements. May provide multiple identifiers such as insurance company identifier or business identifier (BIN number).</t>
@@ -710,25 +1218,7 @@
     <t>Coverage.grouping.id</t>
   </si>
   <si>
-    <t>xml:id (or equivalent in JSON)</t>
-  </si>
-  <si>
-    <t>unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
     <t>Coverage.grouping.extension</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. In order to make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
   </si>
   <si>
     <t>Coverage.grouping.modifierExtension</t>
@@ -1073,6 +1563,21 @@
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>
+  <dxfs count="2">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="22"/>
+        <i val="true"/>
+      </font>
+    </dxf>
+  </dxfs>
 </styleSheet>
 </file>
 
@@ -1249,7 +1754,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AQ41"/>
+  <dimension ref="A1:AQ73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1258,9 +1763,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="35.80859375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="35.80859375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="12.66015625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="1" max="1" width="53.10546875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="42.5546875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="19.78515625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
@@ -1277,7 +1782,7 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="9.953125" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="38.2265625" customWidth="true" bestFit="true"/>
     <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
@@ -1286,7 +1791,7 @@
     <col min="26" max="26" width="48.9453125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="20.59375" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="34.859375" customWidth="true" bestFit="true" hidden="true"/>
@@ -1294,7 +1799,7 @@
     <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="37" max="37" width="29.69921875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="24.98046875" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="102.6171875" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="36.91796875" customWidth="true" bestFit="true"/>
     <col min="40" max="40" width="59.44921875" customWidth="true" bestFit="true"/>
     <col min="41" max="41" width="51.2734375" customWidth="true" bestFit="true"/>
@@ -1433,7 +1938,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" hidden="true">
       <c r="A2" t="s" s="2">
         <v>30</v>
       </c>
@@ -1554,7 +2059,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
         <v>88</v>
       </c>
@@ -1677,7 +2182,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
         <v>96</v>
       </c>
@@ -1798,7 +2303,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
         <v>101</v>
       </c>
@@ -1921,7 +2426,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
         <v>107</v>
       </c>
@@ -2044,7 +2549,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
         <v>116</v>
       </c>
@@ -2167,7 +2672,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
         <v>125</v>
       </c>
@@ -2290,7 +2795,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
         <v>133</v>
       </c>
@@ -2413,7 +2918,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
         <v>140</v>
       </c>
@@ -2536,7 +3041,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
         <v>144</v>
       </c>
@@ -2611,16 +3116,14 @@
         <v>80</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC11" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="AC11" s="2"/>
       <c r="AD11" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>80</v>
+        <v>150</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>144</v>
@@ -2638,35 +3141,37 @@
         <v>80</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="AL11" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="AN11" t="s" s="2">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="AO11" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="AP11" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="AQ11" t="s" s="2">
         <v>152</v>
       </c>
-      <c r="AP11" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="AQ11" t="s" s="2">
-        <v>150</v>
-      </c>
     </row>
-    <row r="12">
+    <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="C12" s="2"/>
+        <v>144</v>
+      </c>
+      <c r="C12" t="s" s="2">
+        <v>157</v>
+      </c>
       <c r="D12" t="s" s="2">
         <v>80</v>
       </c>
@@ -2678,27 +3183,27 @@
         <v>89</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="J12" t="s" s="2">
         <v>90</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>108</v>
+        <v>145</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="N12" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="O12" s="2"/>
+        <v>147</v>
+      </c>
+      <c r="N12" s="2"/>
+      <c r="O12" t="s" s="2">
+        <v>148</v>
+      </c>
       <c r="P12" t="s" s="2">
         <v>80</v>
       </c>
@@ -2722,72 +3227,72 @@
         <v>80</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>158</v>
+        <v>80</v>
       </c>
       <c r="Y12" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z12" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA12" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB12" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC12" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD12" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE12" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF12" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="AG12" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH12" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI12" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ12" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK12" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="AL12" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM12" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="AN12" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="AO12" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="AP12" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="AQ12" t="s" s="2">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="13" hidden="true">
+      <c r="A13" t="s" s="2">
         <v>159</v>
       </c>
-      <c r="Z12" t="s" s="2">
+      <c r="B13" t="s" s="2">
         <v>160</v>
-      </c>
-      <c r="AA12" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB12" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC12" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD12" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE12" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF12" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="AG12" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH12" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AI12" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ12" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AK12" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="AL12" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM12" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="AN12" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO12" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AP12" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AQ12" t="s" s="2">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="B13" t="s" s="2">
-        <v>163</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -2807,21 +3312,19 @@
         <v>80</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="N13" s="2"/>
-      <c r="O13" t="s" s="2">
-        <v>167</v>
-      </c>
+      <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
         <v>80</v>
       </c>
@@ -2845,13 +3348,13 @@
         <v>80</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>168</v>
+        <v>80</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>169</v>
+        <v>80</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>170</v>
+        <v>80</v>
       </c>
       <c r="AA13" t="s" s="2">
         <v>80</v>
@@ -2869,7 +3372,7 @@
         <v>80</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>81</v>
@@ -2887,41 +3390,41 @@
         <v>80</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>80</v>
+        <v>165</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>171</v>
+        <v>80</v>
       </c>
       <c r="AN13" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO13" t="s" s="2">
-        <v>172</v>
+        <v>80</v>
       </c>
       <c r="AP13" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AQ13" t="s" s="2">
-        <v>171</v>
+        <v>80</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>80</v>
+        <v>134</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>80</v>
@@ -2930,18 +3433,20 @@
         <v>80</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>174</v>
+        <v>135</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>175</v>
+        <v>136</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="N14" s="2"/>
+        <v>168</v>
+      </c>
+      <c r="N14" t="s" s="2">
+        <v>138</v>
+      </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
         <v>80</v>
@@ -2978,60 +3483,60 @@
         <v>80</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>80</v>
+        <v>169</v>
       </c>
       <c r="AC14" t="s" s="2">
-        <v>80</v>
+        <v>170</v>
       </c>
       <c r="AD14" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>80</v>
+        <v>150</v>
       </c>
       <c r="AF14" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="AG14" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH14" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI14" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ14" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK14" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL14" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="AM14" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN14" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO14" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AP14" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AQ14" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="15" hidden="true">
+      <c r="A15" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="B15" t="s" s="2">
         <v>173</v>
-      </c>
-      <c r="AG14" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH14" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AI14" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ14" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AK14" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL14" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM14" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="AN14" t="s" s="2">
-        <v>178</v>
-      </c>
-      <c r="AO14" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="AP14" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="AQ14" t="s" s="2">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="B15" t="s" s="2">
-        <v>181</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3048,22 +3553,26 @@
         <v>80</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="J15" t="s" s="2">
         <v>90</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>182</v>
+        <v>108</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="N15" s="2"/>
-      <c r="O15" s="2"/>
+        <v>175</v>
+      </c>
+      <c r="N15" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="O15" t="s" s="2">
+        <v>177</v>
+      </c>
       <c r="P15" t="s" s="2">
         <v>80</v>
       </c>
@@ -3087,13 +3596,13 @@
         <v>80</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>80</v>
+        <v>178</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>80</v>
+        <v>179</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>80</v>
+        <v>180</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>80</v>
@@ -3129,30 +3638,30 @@
         <v>80</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>80</v>
+        <v>182</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>177</v>
+        <v>80</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>178</v>
+        <v>80</v>
       </c>
       <c r="AO15" t="s" s="2">
-        <v>179</v>
+        <v>132</v>
       </c>
       <c r="AP15" t="s" s="2">
-        <v>180</v>
+        <v>80</v>
       </c>
       <c r="AQ15" t="s" s="2">
-        <v>177</v>
+        <v>80</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3175,16 +3684,20 @@
         <v>90</v>
       </c>
       <c r="K16" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="L16" t="s" s="2">
         <v>186</v>
       </c>
-      <c r="L16" t="s" s="2">
+      <c r="M16" t="s" s="2">
         <v>187</v>
       </c>
-      <c r="M16" t="s" s="2">
+      <c r="N16" t="s" s="2">
         <v>188</v>
       </c>
-      <c r="N16" s="2"/>
-      <c r="O16" s="2"/>
+      <c r="O16" t="s" s="2">
+        <v>189</v>
+      </c>
       <c r="P16" t="s" s="2">
         <v>80</v>
       </c>
@@ -3208,13 +3721,13 @@
         <v>80</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>80</v>
+        <v>112</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>80</v>
+        <v>190</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>80</v>
+        <v>191</v>
       </c>
       <c r="AA16" t="s" s="2">
         <v>80</v>
@@ -3232,7 +3745,7 @@
         <v>80</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>81</v>
@@ -3250,30 +3763,30 @@
         <v>80</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>80</v>
+        <v>182</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>177</v>
+        <v>80</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>178</v>
+        <v>80</v>
       </c>
       <c r="AO16" t="s" s="2">
-        <v>179</v>
+        <v>193</v>
       </c>
       <c r="AP16" t="s" s="2">
-        <v>180</v>
+        <v>80</v>
       </c>
       <c r="AQ16" t="s" s="2">
-        <v>177</v>
+        <v>80</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3293,16 +3806,16 @@
         <v>80</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>190</v>
+        <v>161</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>191</v>
+        <v>162</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>192</v>
+        <v>163</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
@@ -3353,7 +3866,7 @@
         <v>80</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>189</v>
+        <v>164</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>81</v>
@@ -3368,44 +3881,44 @@
         <v>80</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>193</v>
+        <v>80</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>80</v>
+        <v>165</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>177</v>
+        <v>80</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>178</v>
+        <v>80</v>
       </c>
       <c r="AO17" t="s" s="2">
-        <v>179</v>
+        <v>80</v>
       </c>
       <c r="AP17" t="s" s="2">
-        <v>180</v>
+        <v>80</v>
       </c>
       <c r="AQ17" t="s" s="2">
-        <v>177</v>
+        <v>80</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>80</v>
+        <v>134</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>80</v>
@@ -3417,18 +3930,18 @@
         <v>80</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>164</v>
+        <v>135</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>195</v>
+        <v>136</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="N18" s="2"/>
-      <c r="O18" t="s" s="2">
-        <v>197</v>
-      </c>
+        <v>168</v>
+      </c>
+      <c r="N18" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
         <v>80</v>
       </c>
@@ -3452,72 +3965,72 @@
         <v>80</v>
       </c>
       <c r="X18" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y18" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z18" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA18" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB18" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="AC18" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="AD18" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE18" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="AF18" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="AG18" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH18" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI18" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ18" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK18" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL18" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="AM18" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN18" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO18" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AP18" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AQ18" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="19" hidden="true">
+      <c r="A19" t="s" s="2">
         <v>198</v>
       </c>
-      <c r="Y18" t="s" s="2">
+      <c r="B19" t="s" s="2">
         <v>199</v>
-      </c>
-      <c r="Z18" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="AA18" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB18" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC18" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD18" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE18" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF18" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="AG18" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH18" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AI18" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ18" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AK18" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL18" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM18" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN18" t="s" s="2">
-        <v>201</v>
-      </c>
-      <c r="AO18" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AP18" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AQ18" t="s" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="s" s="2">
-        <v>202</v>
-      </c>
-      <c r="B19" t="s" s="2">
-        <v>202</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3528,7 +4041,7 @@
         <v>81</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>80</v>
@@ -3540,16 +4053,20 @@
         <v>90</v>
       </c>
       <c r="K19" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="L19" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="M19" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="N19" t="s" s="2">
         <v>203</v>
       </c>
-      <c r="L19" t="s" s="2">
+      <c r="O19" t="s" s="2">
         <v>204</v>
       </c>
-      <c r="M19" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="N19" s="2"/>
-      <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
         <v>80</v>
       </c>
@@ -3597,13 +4114,13 @@
         <v>80</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>80</v>
@@ -3612,30 +4129,30 @@
         <v>80</v>
       </c>
       <c r="AK19" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL19" t="s" s="2">
         <v>206</v>
       </c>
-      <c r="AL19" t="s" s="2">
-        <v>80</v>
-      </c>
       <c r="AM19" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN19" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO19" t="s" s="2">
         <v>207</v>
       </c>
-      <c r="AN19" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO19" t="s" s="2">
+      <c r="AP19" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AQ19" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="20" hidden="true">
+      <c r="A20" t="s" s="2">
         <v>208</v>
-      </c>
-      <c r="AP19" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AQ19" t="s" s="2">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="s" s="2">
-        <v>209</v>
       </c>
       <c r="B20" t="s" s="2">
         <v>209</v>
@@ -3649,7 +4166,7 @@
         <v>81</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>80</v>
@@ -3658,21 +4175,19 @@
         <v>80</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>210</v>
+        <v>161</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>211</v>
+        <v>162</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>212</v>
+        <v>163</v>
       </c>
       <c r="N20" s="2"/>
-      <c r="O20" t="s" s="2">
-        <v>213</v>
-      </c>
+      <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
         <v>80</v>
       </c>
@@ -3720,13 +4235,13 @@
         <v>80</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>209</v>
+        <v>164</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>80</v>
@@ -3738,41 +4253,41 @@
         <v>80</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>80</v>
+        <v>165</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>214</v>
+        <v>80</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>215</v>
+        <v>80</v>
       </c>
       <c r="AO20" t="s" s="2">
-        <v>216</v>
+        <v>80</v>
       </c>
       <c r="AP20" t="s" s="2">
-        <v>217</v>
+        <v>80</v>
       </c>
       <c r="AQ20" t="s" s="2">
-        <v>214</v>
+        <v>80</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>80</v>
+        <v>134</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>80</v>
@@ -3784,15 +4299,17 @@
         <v>80</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>219</v>
+        <v>135</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>220</v>
+        <v>136</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="N21" s="2"/>
+        <v>168</v>
+      </c>
+      <c r="N21" t="s" s="2">
+        <v>138</v>
+      </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
         <v>80</v>
@@ -3829,37 +4346,37 @@
         <v>80</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>80</v>
+        <v>169</v>
       </c>
       <c r="AC21" t="s" s="2">
-        <v>80</v>
+        <v>170</v>
       </c>
       <c r="AD21" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>80</v>
+        <v>150</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>218</v>
+        <v>171</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>222</v>
+        <v>80</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>80</v>
+        <v>165</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>80</v>
@@ -3877,12 +4394,12 @@
         <v>80</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>223</v>
+        <v>212</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -3902,19 +4419,23 @@
         <v>80</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>186</v>
+        <v>102</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="N22" s="2"/>
-      <c r="O22" s="2"/>
+        <v>215</v>
+      </c>
+      <c r="N22" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="O22" t="s" s="2">
+        <v>217</v>
+      </c>
       <c r="P22" t="s" s="2">
         <v>80</v>
       </c>
@@ -3962,7 +4483,7 @@
         <v>80</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>81</v>
@@ -3980,7 +4501,7 @@
         <v>80</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>80</v>
@@ -3989,7 +4510,7 @@
         <v>80</v>
       </c>
       <c r="AO22" t="s" s="2">
-        <v>80</v>
+        <v>220</v>
       </c>
       <c r="AP22" t="s" s="2">
         <v>80</v>
@@ -3998,23 +4519,23 @@
         <v>80</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>134</v>
+        <v>80</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>80</v>
@@ -4023,19 +4544,19 @@
         <v>80</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>135</v>
+        <v>161</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>136</v>
+        <v>223</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>138</v>
+        <v>225</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
@@ -4085,13 +4606,13 @@
         <v>80</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>80</v>
@@ -4112,7 +4633,7 @@
         <v>80</v>
       </c>
       <c r="AO23" t="s" s="2">
-        <v>80</v>
+        <v>228</v>
       </c>
       <c r="AP23" t="s" s="2">
         <v>80</v>
@@ -4121,46 +4642,46 @@
         <v>80</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>232</v>
+        <v>80</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="J24" t="s" s="2">
         <v>90</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>135</v>
+        <v>108</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>141</v>
+        <v>231</v>
       </c>
       <c r="M24" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="N24" s="2"/>
+      <c r="O24" t="s" s="2">
         <v>233</v>
       </c>
-      <c r="N24" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
         <v>80</v>
       </c>
@@ -4169,7 +4690,7 @@
         <v>80</v>
       </c>
       <c r="S24" t="s" s="2">
-        <v>80</v>
+        <v>157</v>
       </c>
       <c r="T24" t="s" s="2">
         <v>80</v>
@@ -4214,7 +4735,7 @@
         <v>81</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>80</v>
@@ -4226,7 +4747,7 @@
         <v>80</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>132</v>
+        <v>235</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>80</v>
@@ -4235,7 +4756,7 @@
         <v>80</v>
       </c>
       <c r="AO24" t="s" s="2">
-        <v>80</v>
+        <v>236</v>
       </c>
       <c r="AP24" t="s" s="2">
         <v>80</v>
@@ -4244,12 +4765,12 @@
         <v>80</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4272,16 +4793,18 @@
         <v>90</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>186</v>
+        <v>161</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="N25" s="2"/>
-      <c r="O25" s="2"/>
+      <c r="O25" t="s" s="2">
+        <v>241</v>
+      </c>
       <c r="P25" t="s" s="2">
         <v>80</v>
       </c>
@@ -4329,7 +4852,7 @@
         <v>80</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>235</v>
+        <v>242</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>81</v>
@@ -4347,30 +4870,30 @@
         <v>80</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>80</v>
+        <v>243</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>238</v>
+        <v>80</v>
       </c>
       <c r="AO25" t="s" s="2">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="AP25" t="s" s="2">
-        <v>240</v>
+        <v>80</v>
       </c>
       <c r="AQ25" t="s" s="2">
         <v>80</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4393,16 +4916,20 @@
         <v>90</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>186</v>
+        <v>247</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>243</v>
-      </c>
-      <c r="N26" s="2"/>
-      <c r="O26" s="2"/>
+        <v>249</v>
+      </c>
+      <c r="N26" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="O26" t="s" s="2">
+        <v>251</v>
+      </c>
       <c r="P26" t="s" s="2">
         <v>80</v>
       </c>
@@ -4450,7 +4977,7 @@
         <v>80</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>241</v>
+        <v>252</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>81</v>
@@ -4468,30 +4995,30 @@
         <v>80</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>80</v>
+        <v>253</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>238</v>
+        <v>80</v>
       </c>
       <c r="AO26" t="s" s="2">
-        <v>239</v>
+        <v>254</v>
       </c>
       <c r="AP26" t="s" s="2">
-        <v>240</v>
+        <v>80</v>
       </c>
       <c r="AQ26" t="s" s="2">
         <v>80</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>244</v>
+        <v>255</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4514,16 +5041,20 @@
         <v>90</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>186</v>
+        <v>161</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>245</v>
+        <v>257</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>246</v>
-      </c>
-      <c r="N27" s="2"/>
-      <c r="O27" s="2"/>
+        <v>258</v>
+      </c>
+      <c r="N27" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="O27" t="s" s="2">
+        <v>260</v>
+      </c>
       <c r="P27" t="s" s="2">
         <v>80</v>
       </c>
@@ -4571,7 +5102,7 @@
         <v>80</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>244</v>
+        <v>261</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>81</v>
@@ -4589,7 +5120,7 @@
         <v>80</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>80</v>
+        <v>262</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>80</v>
@@ -4598,7 +5129,7 @@
         <v>80</v>
       </c>
       <c r="AO27" t="s" s="2">
-        <v>239</v>
+        <v>263</v>
       </c>
       <c r="AP27" t="s" s="2">
         <v>80</v>
@@ -4607,12 +5138,12 @@
         <v>80</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>247</v>
+        <v>264</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>247</v>
+        <v>265</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4635,16 +5166,18 @@
         <v>90</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>186</v>
+        <v>102</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>248</v>
+        <v>266</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>249</v>
+        <v>267</v>
       </c>
       <c r="N28" s="2"/>
-      <c r="O28" s="2"/>
+      <c r="O28" t="s" s="2">
+        <v>268</v>
+      </c>
       <c r="P28" t="s" s="2">
         <v>80</v>
       </c>
@@ -4653,10 +5186,10 @@
         <v>80</v>
       </c>
       <c r="S28" t="s" s="2">
-        <v>80</v>
+        <v>269</v>
       </c>
       <c r="T28" t="s" s="2">
-        <v>80</v>
+        <v>270</v>
       </c>
       <c r="U28" t="s" s="2">
         <v>80</v>
@@ -4692,7 +5225,7 @@
         <v>80</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>247</v>
+        <v>271</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>81</v>
@@ -4710,7 +5243,7 @@
         <v>80</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>80</v>
+        <v>272</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>80</v>
@@ -4719,7 +5252,7 @@
         <v>80</v>
       </c>
       <c r="AO28" t="s" s="2">
-        <v>239</v>
+        <v>273</v>
       </c>
       <c r="AP28" t="s" s="2">
         <v>80</v>
@@ -4728,12 +5261,12 @@
         <v>80</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>250</v>
+        <v>274</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>250</v>
+        <v>275</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4756,15 +5289,17 @@
         <v>90</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>186</v>
+        <v>161</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>251</v>
+        <v>276</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>252</v>
-      </c>
-      <c r="N29" s="2"/>
+        <v>277</v>
+      </c>
+      <c r="N29" t="s" s="2">
+        <v>278</v>
+      </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
         <v>80</v>
@@ -4777,7 +5312,7 @@
         <v>80</v>
       </c>
       <c r="T29" t="s" s="2">
-        <v>80</v>
+        <v>279</v>
       </c>
       <c r="U29" t="s" s="2">
         <v>80</v>
@@ -4813,7 +5348,7 @@
         <v>80</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>250</v>
+        <v>280</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>81</v>
@@ -4831,16 +5366,16 @@
         <v>80</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>80</v>
+        <v>281</v>
       </c>
       <c r="AM29" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>253</v>
+        <v>80</v>
       </c>
       <c r="AO29" t="s" s="2">
-        <v>254</v>
+        <v>282</v>
       </c>
       <c r="AP29" t="s" s="2">
         <v>80</v>
@@ -4849,12 +5384,12 @@
         <v>80</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>255</v>
+        <v>283</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>255</v>
+        <v>284</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4877,13 +5412,13 @@
         <v>90</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>186</v>
+        <v>285</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>256</v>
+        <v>286</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>257</v>
+        <v>287</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -4934,7 +5469,7 @@
         <v>80</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>255</v>
+        <v>288</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>81</v>
@@ -4952,16 +5487,16 @@
         <v>80</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>80</v>
+        <v>289</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>253</v>
+        <v>80</v>
       </c>
       <c r="AO30" t="s" s="2">
-        <v>254</v>
+        <v>290</v>
       </c>
       <c r="AP30" t="s" s="2">
         <v>80</v>
@@ -4970,12 +5505,12 @@
         <v>80</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>258</v>
+        <v>291</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>258</v>
+        <v>292</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -4998,15 +5533,17 @@
         <v>90</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>186</v>
+        <v>293</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>259</v>
+        <v>294</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="N31" s="2"/>
+        <v>295</v>
+      </c>
+      <c r="N31" t="s" s="2">
+        <v>296</v>
+      </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
         <v>80</v>
@@ -5055,7 +5592,7 @@
         <v>80</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>258</v>
+        <v>297</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>81</v>
@@ -5073,7 +5610,7 @@
         <v>80</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>80</v>
+        <v>298</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>80</v>
@@ -5082,7 +5619,7 @@
         <v>80</v>
       </c>
       <c r="AO31" t="s" s="2">
-        <v>261</v>
+        <v>299</v>
       </c>
       <c r="AP31" t="s" s="2">
         <v>80</v>
@@ -5091,12 +5628,12 @@
         <v>80</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>262</v>
+        <v>300</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>262</v>
+        <v>300</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5113,21 +5650,23 @@
         <v>80</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="J32" t="s" s="2">
         <v>90</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>186</v>
+        <v>108</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>263</v>
+        <v>301</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>264</v>
-      </c>
-      <c r="N32" s="2"/>
+        <v>302</v>
+      </c>
+      <c r="N32" t="s" s="2">
+        <v>303</v>
+      </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
         <v>80</v>
@@ -5152,13 +5691,13 @@
         <v>80</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>80</v>
+        <v>178</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>80</v>
+        <v>304</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>80</v>
+        <v>305</v>
       </c>
       <c r="AA32" t="s" s="2">
         <v>80</v>
@@ -5176,7 +5715,7 @@
         <v>80</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>262</v>
+        <v>300</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>81</v>
@@ -5191,33 +5730,33 @@
         <v>80</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>80</v>
+        <v>306</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>80</v>
+        <v>307</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO32" t="s" s="2">
-        <v>261</v>
+        <v>80</v>
       </c>
       <c r="AP32" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AQ32" t="s" s="2">
-        <v>80</v>
+        <v>307</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>265</v>
+        <v>308</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>265</v>
+        <v>308</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5240,16 +5779,18 @@
         <v>90</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>266</v>
+        <v>309</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>267</v>
+        <v>310</v>
       </c>
       <c r="N33" s="2"/>
-      <c r="O33" s="2"/>
+      <c r="O33" t="s" s="2">
+        <v>311</v>
+      </c>
       <c r="P33" t="s" s="2">
         <v>80</v>
       </c>
@@ -5273,13 +5814,13 @@
         <v>80</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>80</v>
+        <v>312</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>80</v>
+        <v>313</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>80</v>
+        <v>314</v>
       </c>
       <c r="AA33" t="s" s="2">
         <v>80</v>
@@ -5297,7 +5838,7 @@
         <v>80</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>265</v>
+        <v>308</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>81</v>
@@ -5318,27 +5859,27 @@
         <v>80</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>80</v>
+        <v>315</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>253</v>
+        <v>80</v>
       </c>
       <c r="AO33" t="s" s="2">
-        <v>254</v>
+        <v>316</v>
       </c>
       <c r="AP33" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AQ33" t="s" s="2">
-        <v>80</v>
+        <v>315</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>268</v>
+        <v>317</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>268</v>
+        <v>317</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5358,16 +5899,16 @@
         <v>80</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>186</v>
+        <v>161</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>269</v>
+        <v>162</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>270</v>
+        <v>163</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -5418,7 +5959,7 @@
         <v>80</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>268</v>
+        <v>164</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>81</v>
@@ -5436,16 +5977,16 @@
         <v>80</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>80</v>
+        <v>165</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>253</v>
+        <v>80</v>
       </c>
       <c r="AO34" t="s" s="2">
-        <v>254</v>
+        <v>80</v>
       </c>
       <c r="AP34" t="s" s="2">
         <v>80</v>
@@ -5454,23 +5995,23 @@
         <v>80</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>271</v>
+        <v>318</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>271</v>
+        <v>318</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>80</v>
+        <v>134</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>80</v>
@@ -5479,18 +6020,20 @@
         <v>80</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>186</v>
+        <v>135</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>272</v>
+        <v>136</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>273</v>
-      </c>
-      <c r="N35" s="2"/>
+        <v>168</v>
+      </c>
+      <c r="N35" t="s" s="2">
+        <v>138</v>
+      </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
         <v>80</v>
@@ -5527,25 +6070,25 @@
         <v>80</v>
       </c>
       <c r="AB35" t="s" s="2">
-        <v>80</v>
+        <v>169</v>
       </c>
       <c r="AC35" t="s" s="2">
-        <v>80</v>
+        <v>170</v>
       </c>
       <c r="AD35" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>80</v>
+        <v>150</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>271</v>
+        <v>171</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>80</v>
@@ -5557,16 +6100,16 @@
         <v>80</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>80</v>
+        <v>165</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>253</v>
+        <v>80</v>
       </c>
       <c r="AO35" t="s" s="2">
-        <v>254</v>
+        <v>80</v>
       </c>
       <c r="AP35" t="s" s="2">
         <v>80</v>
@@ -5575,12 +6118,12 @@
         <v>80</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>274</v>
+        <v>319</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>274</v>
+        <v>319</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5591,7 +6134,7 @@
         <v>81</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>80</v>
@@ -5603,16 +6146,20 @@
         <v>90</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>186</v>
+        <v>200</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>275</v>
+        <v>201</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>276</v>
-      </c>
-      <c r="N36" s="2"/>
-      <c r="O36" s="2"/>
+        <v>202</v>
+      </c>
+      <c r="N36" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="O36" t="s" s="2">
+        <v>204</v>
+      </c>
       <c r="P36" t="s" s="2">
         <v>80</v>
       </c>
@@ -5648,25 +6195,23 @@
         <v>80</v>
       </c>
       <c r="AB36" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC36" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>320</v>
+      </c>
+      <c r="AC36" s="2"/>
       <c r="AD36" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>80</v>
+        <v>150</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>274</v>
+        <v>205</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>80</v>
@@ -5678,16 +6223,16 @@
         <v>80</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>80</v>
+        <v>206</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>253</v>
+        <v>80</v>
       </c>
       <c r="AO36" t="s" s="2">
-        <v>254</v>
+        <v>207</v>
       </c>
       <c r="AP36" t="s" s="2">
         <v>80</v>
@@ -5696,14 +6241,16 @@
         <v>80</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>277</v>
+        <v>321</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>277</v>
-      </c>
-      <c r="C37" s="2"/>
+        <v>319</v>
+      </c>
+      <c r="C37" t="s" s="2">
+        <v>322</v>
+      </c>
       <c r="D37" t="s" s="2">
         <v>80</v>
       </c>
@@ -5715,7 +6262,7 @@
         <v>89</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="I37" t="s" s="2">
         <v>80</v>
@@ -5724,17 +6271,19 @@
         <v>90</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>186</v>
+        <v>200</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>278</v>
+        <v>201</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>279</v>
-      </c>
-      <c r="N37" s="2"/>
+        <v>202</v>
+      </c>
+      <c r="N37" t="s" s="2">
+        <v>203</v>
+      </c>
       <c r="O37" t="s" s="2">
-        <v>280</v>
+        <v>204</v>
       </c>
       <c r="P37" t="s" s="2">
         <v>80</v>
@@ -5783,13 +6332,13 @@
         <v>80</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>277</v>
+        <v>205</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>80</v>
@@ -5801,16 +6350,16 @@
         <v>80</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>80</v>
+        <v>206</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>281</v>
+        <v>80</v>
       </c>
       <c r="AO37" t="s" s="2">
-        <v>282</v>
+        <v>207</v>
       </c>
       <c r="AP37" t="s" s="2">
         <v>80</v>
@@ -5819,12 +6368,12 @@
         <v>80</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>283</v>
+        <v>323</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>283</v>
+        <v>324</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5844,21 +6393,19 @@
         <v>80</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>186</v>
+        <v>161</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>284</v>
+        <v>162</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>285</v>
+        <v>163</v>
       </c>
       <c r="N38" s="2"/>
-      <c r="O38" t="s" s="2">
-        <v>286</v>
-      </c>
+      <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
         <v>80</v>
       </c>
@@ -5906,7 +6453,7 @@
         <v>80</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>283</v>
+        <v>164</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>81</v>
@@ -5924,16 +6471,16 @@
         <v>80</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>80</v>
+        <v>165</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>287</v>
+        <v>80</v>
       </c>
       <c r="AO38" t="s" s="2">
-        <v>288</v>
+        <v>80</v>
       </c>
       <c r="AP38" t="s" s="2">
         <v>80</v>
@@ -5942,23 +6489,23 @@
         <v>80</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>289</v>
+        <v>325</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>289</v>
+        <v>326</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>80</v>
+        <v>134</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>80</v>
@@ -5967,18 +6514,20 @@
         <v>80</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>290</v>
+        <v>135</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>291</v>
+        <v>136</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>292</v>
-      </c>
-      <c r="N39" s="2"/>
+        <v>168</v>
+      </c>
+      <c r="N39" t="s" s="2">
+        <v>138</v>
+      </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
         <v>80</v>
@@ -6015,25 +6564,25 @@
         <v>80</v>
       </c>
       <c r="AB39" t="s" s="2">
-        <v>80</v>
+        <v>169</v>
       </c>
       <c r="AC39" t="s" s="2">
-        <v>80</v>
+        <v>170</v>
       </c>
       <c r="AD39" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>80</v>
+        <v>150</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>289</v>
+        <v>171</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>80</v>
@@ -6045,7 +6594,7 @@
         <v>80</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>80</v>
+        <v>165</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>80</v>
@@ -6054,7 +6603,7 @@
         <v>80</v>
       </c>
       <c r="AO39" t="s" s="2">
-        <v>282</v>
+        <v>80</v>
       </c>
       <c r="AP39" t="s" s="2">
         <v>80</v>
@@ -6063,12 +6612,12 @@
         <v>80</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>293</v>
+        <v>327</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>293</v>
+        <v>328</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6091,16 +6640,20 @@
         <v>90</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>186</v>
+        <v>102</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>294</v>
+        <v>214</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>295</v>
-      </c>
-      <c r="N40" s="2"/>
-      <c r="O40" s="2"/>
+        <v>215</v>
+      </c>
+      <c r="N40" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="O40" t="s" s="2">
+        <v>217</v>
+      </c>
       <c r="P40" t="s" s="2">
         <v>80</v>
       </c>
@@ -6109,7 +6662,7 @@
         <v>80</v>
       </c>
       <c r="S40" t="s" s="2">
-        <v>80</v>
+        <v>329</v>
       </c>
       <c r="T40" t="s" s="2">
         <v>80</v>
@@ -6148,7 +6701,7 @@
         <v>80</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>293</v>
+        <v>218</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>81</v>
@@ -6166,16 +6719,16 @@
         <v>80</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>80</v>
+        <v>219</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>296</v>
+        <v>80</v>
       </c>
       <c r="AO40" t="s" s="2">
-        <v>80</v>
+        <v>220</v>
       </c>
       <c r="AP40" t="s" s="2">
         <v>80</v>
@@ -6184,12 +6737,12 @@
         <v>80</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>297</v>
+        <v>330</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>297</v>
+        <v>331</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6200,7 +6753,7 @@
         <v>81</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>80</v>
@@ -6209,18 +6762,20 @@
         <v>80</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>298</v>
+        <v>161</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>299</v>
+        <v>223</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>300</v>
-      </c>
-      <c r="N41" s="2"/>
+        <v>224</v>
+      </c>
+      <c r="N41" t="s" s="2">
+        <v>225</v>
+      </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
         <v>80</v>
@@ -6269,43 +6824,3957 @@
         <v>80</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>297</v>
+        <v>226</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH41" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI41" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ41" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK41" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL41" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="AM41" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN41" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO41" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="AP41" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AQ41" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="42" hidden="true">
+      <c r="A42" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="B42" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="C42" s="2"/>
+      <c r="D42" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E42" s="2"/>
+      <c r="F42" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="G42" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="H42" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I42" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J42" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="K42" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="L42" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="M42" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="N42" s="2"/>
+      <c r="O42" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="P42" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q42" s="2"/>
+      <c r="R42" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S42" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="T42" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U42" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V42" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W42" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X42" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y42" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z42" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA42" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB42" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC42" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD42" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE42" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF42" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="AG42" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH42" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI42" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ42" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK42" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL42" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="AM42" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN42" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO42" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="AP42" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AQ42" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="43" hidden="true">
+      <c r="A43" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="B43" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="C43" s="2"/>
+      <c r="D43" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E43" s="2"/>
+      <c r="F43" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G43" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="H43" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I43" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J43" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="K43" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="L43" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="M43" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="N43" s="2"/>
+      <c r="O43" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="P43" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q43" s="2"/>
+      <c r="R43" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S43" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="T43" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U43" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V43" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W43" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X43" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y43" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z43" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA43" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB43" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC43" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD43" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE43" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF43" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="AG43" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH43" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI43" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ43" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK43" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL43" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="AM43" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN43" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO43" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="AP43" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AQ43" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="44" hidden="true">
+      <c r="A44" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="B44" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="C44" s="2"/>
+      <c r="D44" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E44" s="2"/>
+      <c r="F44" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G44" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="H44" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I44" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J44" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="K44" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="L44" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="M44" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="N44" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="O44" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="P44" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q44" s="2"/>
+      <c r="R44" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S44" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T44" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U44" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V44" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W44" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X44" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y44" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z44" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA44" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB44" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC44" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD44" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE44" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF44" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="AG44" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH44" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI44" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ44" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK44" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL44" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="AM44" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN44" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO44" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="AP44" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AQ44" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="45" hidden="true">
+      <c r="A45" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="B45" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="C45" s="2"/>
+      <c r="D45" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E45" s="2"/>
+      <c r="F45" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G45" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="H45" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I45" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J45" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="K45" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="L45" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="M45" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="N45" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="O45" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="P45" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q45" s="2"/>
+      <c r="R45" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S45" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T45" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U45" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V45" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W45" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X45" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y45" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z45" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA45" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB45" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC45" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD45" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE45" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF45" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="AG45" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH45" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI45" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ45" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK45" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL45" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="AM45" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN45" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO45" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="AP45" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AQ45" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="46" hidden="true">
+      <c r="A46" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="B46" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="C46" s="2"/>
+      <c r="D46" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E46" s="2"/>
+      <c r="F46" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G46" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="H46" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I46" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J46" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="K46" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="L46" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="M46" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="N46" s="2"/>
+      <c r="O46" s="2"/>
+      <c r="P46" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q46" s="2"/>
+      <c r="R46" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S46" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T46" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U46" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V46" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W46" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X46" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y46" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z46" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA46" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB46" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC46" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD46" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE46" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF46" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="AG46" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH46" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI46" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ46" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK46" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL46" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM46" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="AN46" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="AO46" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="AP46" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="AQ46" t="s" s="2">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="47" hidden="true">
+      <c r="A47" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="B47" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="C47" s="2"/>
+      <c r="D47" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E47" s="2"/>
+      <c r="F47" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G47" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="H47" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I47" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J47" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="K47" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="L47" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="M47" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="N47" s="2"/>
+      <c r="O47" s="2"/>
+      <c r="P47" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q47" s="2"/>
+      <c r="R47" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S47" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T47" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U47" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V47" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W47" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X47" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y47" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z47" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA47" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB47" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC47" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD47" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE47" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF47" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="AG47" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH47" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI47" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ47" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK47" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL47" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM47" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="AN47" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="AO47" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="AP47" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="AQ47" t="s" s="2">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="48" hidden="true">
+      <c r="A48" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="B48" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="C48" s="2"/>
+      <c r="D48" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E48" s="2"/>
+      <c r="F48" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G48" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="H48" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I48" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J48" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="K48" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="L48" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="M48" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="N48" s="2"/>
+      <c r="O48" s="2"/>
+      <c r="P48" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q48" s="2"/>
+      <c r="R48" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S48" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T48" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U48" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V48" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W48" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X48" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y48" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z48" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA48" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB48" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC48" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD48" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE48" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF48" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="AG48" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH48" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI48" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ48" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK48" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL48" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM48" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="AN48" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="AO48" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="AP48" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="AQ48" t="s" s="2">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="49" hidden="true">
+      <c r="A49" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="B49" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="C49" s="2"/>
+      <c r="D49" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E49" s="2"/>
+      <c r="F49" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G49" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="H49" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I49" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J49" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="K49" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="L49" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="M49" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="N49" s="2"/>
+      <c r="O49" s="2"/>
+      <c r="P49" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q49" s="2"/>
+      <c r="R49" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S49" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T49" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U49" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V49" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W49" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X49" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y49" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z49" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA49" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB49" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC49" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD49" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE49" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF49" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="AG49" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH49" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI49" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ49" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK49" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="AL49" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM49" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="AN49" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="AO49" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="AP49" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="AQ49" t="s" s="2">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="50" hidden="true">
+      <c r="A50" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="B50" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="C50" s="2"/>
+      <c r="D50" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E50" s="2"/>
+      <c r="F50" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G50" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="H50" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I50" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J50" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="K50" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="L50" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="M50" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="N50" s="2"/>
+      <c r="O50" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="P50" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q50" s="2"/>
+      <c r="R50" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S50" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T50" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U50" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V50" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W50" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X50" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="Y50" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="Z50" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="AA50" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB50" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC50" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD50" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE50" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF50" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="AG50" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH50" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI50" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ50" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK50" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL50" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM50" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN50" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="AO50" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AP50" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AQ50" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="51" hidden="true">
+      <c r="A51" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="B51" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="C51" s="2"/>
+      <c r="D51" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E51" s="2"/>
+      <c r="F51" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G51" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="H51" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I51" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J51" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="K51" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="L51" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="M51" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="N51" s="2"/>
+      <c r="O51" s="2"/>
+      <c r="P51" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q51" s="2"/>
+      <c r="R51" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S51" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T51" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U51" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V51" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W51" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X51" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y51" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z51" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA51" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB51" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC51" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD51" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE51" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF51" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="AG51" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH51" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI51" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ51" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK51" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="AL51" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM51" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="AN51" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO51" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="AP51" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AQ51" t="s" s="2">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="52" hidden="true">
+      <c r="A52" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="B52" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="C52" s="2"/>
+      <c r="D52" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E52" s="2"/>
+      <c r="F52" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G52" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="AI41" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ41" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AK41" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL41" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM41" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN41" t="s" s="2">
-        <v>178</v>
-      </c>
-      <c r="AO41" t="s" s="2">
-        <v>301</v>
-      </c>
-      <c r="AP41" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="AQ41" t="s" s="2">
+      <c r="H52" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I52" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J52" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="K52" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="L52" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="M52" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="N52" s="2"/>
+      <c r="O52" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="P52" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q52" s="2"/>
+      <c r="R52" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S52" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T52" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U52" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V52" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W52" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X52" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y52" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z52" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA52" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB52" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC52" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD52" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE52" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF52" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="AG52" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH52" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI52" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ52" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK52" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL52" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM52" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="AN52" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="AO52" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="AP52" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="AQ52" t="s" s="2">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="53" hidden="true">
+      <c r="A53" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="B53" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="C53" s="2"/>
+      <c r="D53" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E53" s="2"/>
+      <c r="F53" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G53" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="H53" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I53" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J53" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="K53" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="L53" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="M53" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="N53" s="2"/>
+      <c r="O53" s="2"/>
+      <c r="P53" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q53" s="2"/>
+      <c r="R53" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S53" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T53" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U53" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V53" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W53" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X53" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y53" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z53" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA53" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB53" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC53" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD53" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE53" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF53" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="AG53" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH53" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI53" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ53" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="AK53" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL53" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM53" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN53" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO53" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AP53" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AQ53" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="54" hidden="true">
+      <c r="A54" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="B54" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="C54" s="2"/>
+      <c r="D54" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E54" s="2"/>
+      <c r="F54" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G54" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="H54" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I54" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J54" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="K54" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="L54" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="M54" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="N54" s="2"/>
+      <c r="O54" s="2"/>
+      <c r="P54" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q54" s="2"/>
+      <c r="R54" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S54" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T54" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U54" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V54" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W54" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X54" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y54" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z54" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA54" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB54" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC54" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD54" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE54" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF54" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="AG54" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH54" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI54" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ54" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK54" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL54" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="AM54" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN54" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO54" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AP54" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AQ54" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="55" hidden="true">
+      <c r="A55" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="B55" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="C55" s="2"/>
+      <c r="D55" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="E55" s="2"/>
+      <c r="F55" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G55" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H55" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I55" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J55" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="K55" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="L55" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="M55" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="N55" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="O55" s="2"/>
+      <c r="P55" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q55" s="2"/>
+      <c r="R55" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S55" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T55" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U55" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V55" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W55" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X55" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y55" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z55" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA55" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB55" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC55" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD55" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE55" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF55" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="AG55" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH55" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI55" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ55" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK55" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL55" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="AM55" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN55" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO55" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AP55" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AQ55" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="56" hidden="true">
+      <c r="A56" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="B56" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="C56" s="2"/>
+      <c r="D56" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="E56" s="2"/>
+      <c r="F56" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G56" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H56" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I56" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="J56" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="K56" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="L56" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="M56" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="N56" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="O56" s="2"/>
+      <c r="P56" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q56" s="2"/>
+      <c r="R56" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S56" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T56" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U56" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V56" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W56" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X56" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y56" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z56" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA56" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB56" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC56" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD56" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE56" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF56" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="AG56" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH56" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI56" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ56" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK56" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL56" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="AM56" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN56" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO56" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AP56" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AQ56" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="57" hidden="true">
+      <c r="A57" t="s" s="2">
+        <v>395</v>
+      </c>
+      <c r="B57" t="s" s="2">
+        <v>395</v>
+      </c>
+      <c r="C57" s="2"/>
+      <c r="D57" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E57" s="2"/>
+      <c r="F57" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G57" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="H57" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I57" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J57" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="K57" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="L57" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="M57" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="N57" s="2"/>
+      <c r="O57" s="2"/>
+      <c r="P57" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q57" s="2"/>
+      <c r="R57" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S57" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T57" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U57" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V57" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W57" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X57" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y57" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z57" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA57" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB57" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC57" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD57" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE57" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF57" t="s" s="2">
+        <v>395</v>
+      </c>
+      <c r="AG57" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH57" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI57" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ57" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK57" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL57" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM57" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN57" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="AO57" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="AP57" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="AQ57" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="58" hidden="true">
+      <c r="A58" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="B58" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="C58" s="2"/>
+      <c r="D58" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E58" s="2"/>
+      <c r="F58" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G58" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="H58" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I58" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J58" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="K58" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="L58" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="M58" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="N58" s="2"/>
+      <c r="O58" s="2"/>
+      <c r="P58" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q58" s="2"/>
+      <c r="R58" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S58" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T58" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U58" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V58" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W58" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X58" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y58" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z58" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA58" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB58" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC58" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD58" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE58" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF58" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="AG58" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH58" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI58" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ58" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK58" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL58" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM58" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN58" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="AO58" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="AP58" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="AQ58" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="59" hidden="true">
+      <c r="A59" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="B59" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="C59" s="2"/>
+      <c r="D59" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E59" s="2"/>
+      <c r="F59" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G59" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="H59" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I59" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J59" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="K59" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="L59" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="M59" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="N59" s="2"/>
+      <c r="O59" s="2"/>
+      <c r="P59" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q59" s="2"/>
+      <c r="R59" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S59" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T59" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U59" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V59" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W59" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X59" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y59" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z59" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA59" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB59" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC59" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD59" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE59" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF59" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="AG59" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH59" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI59" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ59" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK59" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL59" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM59" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN59" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO59" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="AP59" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AQ59" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="60" hidden="true">
+      <c r="A60" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="B60" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="C60" s="2"/>
+      <c r="D60" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E60" s="2"/>
+      <c r="F60" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G60" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="H60" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I60" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J60" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="K60" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="L60" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="M60" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="N60" s="2"/>
+      <c r="O60" s="2"/>
+      <c r="P60" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q60" s="2"/>
+      <c r="R60" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S60" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T60" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U60" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V60" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W60" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X60" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y60" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z60" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA60" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB60" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC60" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD60" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE60" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF60" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="AG60" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH60" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI60" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ60" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK60" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL60" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM60" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN60" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO60" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="AP60" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AQ60" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="61" hidden="true">
+      <c r="A61" t="s" s="2">
+        <v>410</v>
+      </c>
+      <c r="B61" t="s" s="2">
+        <v>410</v>
+      </c>
+      <c r="C61" s="2"/>
+      <c r="D61" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E61" s="2"/>
+      <c r="F61" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G61" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="H61" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I61" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J61" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="K61" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="L61" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="M61" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="N61" s="2"/>
+      <c r="O61" s="2"/>
+      <c r="P61" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q61" s="2"/>
+      <c r="R61" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S61" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T61" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U61" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V61" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W61" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X61" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y61" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z61" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA61" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB61" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC61" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD61" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE61" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF61" t="s" s="2">
+        <v>410</v>
+      </c>
+      <c r="AG61" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH61" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI61" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ61" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK61" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL61" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM61" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN61" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="AO61" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="AP61" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AQ61" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="62" hidden="true">
+      <c r="A62" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="B62" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="C62" s="2"/>
+      <c r="D62" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E62" s="2"/>
+      <c r="F62" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G62" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="H62" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I62" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J62" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="K62" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="L62" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="M62" t="s" s="2">
+        <v>417</v>
+      </c>
+      <c r="N62" s="2"/>
+      <c r="O62" s="2"/>
+      <c r="P62" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q62" s="2"/>
+      <c r="R62" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S62" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T62" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U62" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V62" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W62" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X62" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y62" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z62" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA62" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB62" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC62" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD62" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE62" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF62" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="AG62" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH62" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI62" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ62" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK62" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL62" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM62" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN62" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="AO62" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="AP62" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AQ62" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="63" hidden="true">
+      <c r="A63" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="B63" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="C63" s="2"/>
+      <c r="D63" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E63" s="2"/>
+      <c r="F63" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G63" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="H63" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I63" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J63" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="K63" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="L63" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="M63" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="N63" s="2"/>
+      <c r="O63" s="2"/>
+      <c r="P63" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q63" s="2"/>
+      <c r="R63" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S63" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T63" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U63" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V63" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W63" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X63" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y63" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z63" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA63" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB63" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC63" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD63" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE63" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF63" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="AG63" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH63" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI63" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ63" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK63" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL63" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM63" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN63" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO63" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="AP63" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AQ63" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="64" hidden="true">
+      <c r="A64" t="s" s="2">
+        <v>422</v>
+      </c>
+      <c r="B64" t="s" s="2">
+        <v>422</v>
+      </c>
+      <c r="C64" s="2"/>
+      <c r="D64" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E64" s="2"/>
+      <c r="F64" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G64" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="H64" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I64" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J64" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="K64" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="L64" t="s" s="2">
+        <v>423</v>
+      </c>
+      <c r="M64" t="s" s="2">
+        <v>424</v>
+      </c>
+      <c r="N64" s="2"/>
+      <c r="O64" s="2"/>
+      <c r="P64" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q64" s="2"/>
+      <c r="R64" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S64" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T64" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U64" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V64" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W64" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X64" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y64" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z64" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA64" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB64" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC64" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD64" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE64" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF64" t="s" s="2">
+        <v>422</v>
+      </c>
+      <c r="AG64" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH64" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI64" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ64" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK64" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL64" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM64" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN64" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO64" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="AP64" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AQ64" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="65" hidden="true">
+      <c r="A65" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="B65" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="C65" s="2"/>
+      <c r="D65" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E65" s="2"/>
+      <c r="F65" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G65" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="H65" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I65" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J65" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="K65" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="L65" t="s" s="2">
+        <v>426</v>
+      </c>
+      <c r="M65" t="s" s="2">
+        <v>427</v>
+      </c>
+      <c r="N65" s="2"/>
+      <c r="O65" s="2"/>
+      <c r="P65" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q65" s="2"/>
+      <c r="R65" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S65" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T65" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U65" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V65" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W65" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X65" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y65" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z65" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA65" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB65" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC65" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD65" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE65" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF65" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="AG65" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH65" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI65" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ65" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK65" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL65" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM65" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN65" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="AO65" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="AP65" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AQ65" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="66" hidden="true">
+      <c r="A66" t="s" s="2">
+        <v>428</v>
+      </c>
+      <c r="B66" t="s" s="2">
+        <v>428</v>
+      </c>
+      <c r="C66" s="2"/>
+      <c r="D66" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E66" s="2"/>
+      <c r="F66" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G66" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="H66" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I66" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J66" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="K66" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="L66" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="M66" t="s" s="2">
+        <v>430</v>
+      </c>
+      <c r="N66" s="2"/>
+      <c r="O66" s="2"/>
+      <c r="P66" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q66" s="2"/>
+      <c r="R66" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S66" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T66" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U66" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V66" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W66" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X66" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y66" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z66" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA66" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB66" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC66" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD66" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE66" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF66" t="s" s="2">
+        <v>428</v>
+      </c>
+      <c r="AG66" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH66" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI66" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ66" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK66" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL66" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM66" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN66" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="AO66" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="AP66" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AQ66" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="67" hidden="true">
+      <c r="A67" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="B67" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="C67" s="2"/>
+      <c r="D67" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E67" s="2"/>
+      <c r="F67" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G67" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="H67" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I67" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J67" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="K67" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="L67" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="M67" t="s" s="2">
+        <v>433</v>
+      </c>
+      <c r="N67" s="2"/>
+      <c r="O67" s="2"/>
+      <c r="P67" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q67" s="2"/>
+      <c r="R67" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S67" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T67" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U67" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V67" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W67" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X67" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y67" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z67" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA67" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB67" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC67" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD67" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE67" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF67" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="AG67" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH67" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI67" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ67" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK67" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL67" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM67" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN67" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="AO67" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="AP67" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AQ67" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="68" hidden="true">
+      <c r="A68" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="B68" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="C68" s="2"/>
+      <c r="D68" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E68" s="2"/>
+      <c r="F68" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G68" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="H68" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I68" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J68" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="K68" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="L68" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="M68" t="s" s="2">
+        <v>436</v>
+      </c>
+      <c r="N68" s="2"/>
+      <c r="O68" s="2"/>
+      <c r="P68" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q68" s="2"/>
+      <c r="R68" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S68" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T68" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U68" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V68" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W68" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X68" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y68" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z68" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA68" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB68" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC68" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD68" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE68" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF68" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="AG68" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH68" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI68" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ68" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK68" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL68" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM68" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN68" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="AO68" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="AP68" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AQ68" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="69" hidden="true">
+      <c r="A69" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="B69" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="C69" s="2"/>
+      <c r="D69" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E69" s="2"/>
+      <c r="F69" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G69" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="H69" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I69" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J69" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="K69" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="L69" t="s" s="2">
+        <v>438</v>
+      </c>
+      <c r="M69" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="N69" s="2"/>
+      <c r="O69" t="s" s="2">
+        <v>440</v>
+      </c>
+      <c r="P69" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q69" s="2"/>
+      <c r="R69" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S69" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T69" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U69" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V69" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W69" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X69" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y69" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z69" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA69" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB69" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC69" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD69" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE69" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF69" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="AG69" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH69" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI69" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ69" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK69" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL69" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM69" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN69" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="AO69" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="AP69" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AQ69" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="70" hidden="true">
+      <c r="A70" t="s" s="2">
+        <v>443</v>
+      </c>
+      <c r="B70" t="s" s="2">
+        <v>443</v>
+      </c>
+      <c r="C70" s="2"/>
+      <c r="D70" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E70" s="2"/>
+      <c r="F70" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G70" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="H70" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I70" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J70" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="K70" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="L70" t="s" s="2">
+        <v>444</v>
+      </c>
+      <c r="M70" t="s" s="2">
+        <v>445</v>
+      </c>
+      <c r="N70" s="2"/>
+      <c r="O70" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="P70" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q70" s="2"/>
+      <c r="R70" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S70" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T70" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U70" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V70" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W70" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X70" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y70" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z70" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA70" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB70" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC70" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD70" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE70" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF70" t="s" s="2">
+        <v>443</v>
+      </c>
+      <c r="AG70" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH70" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI70" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ70" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK70" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL70" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM70" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN70" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="AO70" t="s" s="2">
+        <v>448</v>
+      </c>
+      <c r="AP70" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AQ70" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="71" hidden="true">
+      <c r="A71" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="B71" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="C71" s="2"/>
+      <c r="D71" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E71" s="2"/>
+      <c r="F71" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G71" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="H71" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I71" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J71" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="K71" t="s" s="2">
+        <v>450</v>
+      </c>
+      <c r="L71" t="s" s="2">
+        <v>451</v>
+      </c>
+      <c r="M71" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="N71" s="2"/>
+      <c r="O71" s="2"/>
+      <c r="P71" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q71" s="2"/>
+      <c r="R71" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S71" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T71" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U71" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V71" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W71" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X71" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y71" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z71" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA71" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB71" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC71" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD71" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE71" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF71" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="AG71" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH71" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI71" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ71" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK71" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL71" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM71" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN71" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO71" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="AP71" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AQ71" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="72" hidden="true">
+      <c r="A72" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="B72" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="C72" s="2"/>
+      <c r="D72" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E72" s="2"/>
+      <c r="F72" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G72" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="H72" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I72" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J72" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="K72" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="L72" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="M72" t="s" s="2">
+        <v>455</v>
+      </c>
+      <c r="N72" s="2"/>
+      <c r="O72" s="2"/>
+      <c r="P72" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q72" s="2"/>
+      <c r="R72" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S72" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T72" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U72" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V72" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W72" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X72" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y72" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z72" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA72" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB72" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC72" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD72" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE72" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF72" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="AG72" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH72" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI72" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ72" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK72" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL72" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM72" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN72" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="AO72" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AP72" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AQ72" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="73" hidden="true">
+      <c r="A73" t="s" s="2">
+        <v>457</v>
+      </c>
+      <c r="B73" t="s" s="2">
+        <v>457</v>
+      </c>
+      <c r="C73" s="2"/>
+      <c r="D73" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E73" s="2"/>
+      <c r="F73" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G73" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="H73" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I73" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J73" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="K73" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="L73" t="s" s="2">
+        <v>459</v>
+      </c>
+      <c r="M73" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="N73" s="2"/>
+      <c r="O73" s="2"/>
+      <c r="P73" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q73" s="2"/>
+      <c r="R73" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S73" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T73" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U73" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V73" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W73" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X73" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y73" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z73" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA73" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB73" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC73" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD73" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE73" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF73" t="s" s="2">
+        <v>457</v>
+      </c>
+      <c r="AG73" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH73" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI73" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ73" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK73" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL73" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM73" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN73" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="AO73" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="AP73" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="AQ73" t="s" s="2">
         <v>80</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:AQ73">
+    <filterColumn colId="6">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
+    </filterColumn>
+    <filterColumn colId="26">
+      <filters blank="true"/>
+    </filterColumn>
+  </autoFilter>
+  <conditionalFormatting sqref="A2:AI72">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>$G2&lt;&gt;"Y"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>$Q2&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/branches/master/StructureDefinition-coverage-pemh-profile.xlsx
+++ b/branches/master/StructureDefinition-coverage-pemh-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-10T09:10:53+00:00</t>
+    <t>2023-02-16T19:26:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-coverage-pemh-profile.xlsx
+++ b/branches/master/StructureDefinition-coverage-pemh-profile.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AQ$73</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AQ$74</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2869" uniqueCount="462">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2906" uniqueCount="470">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-16T19:26:47+00:00</t>
+    <t>2023-02-16T20:28:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -431,33 +431,64 @@
     <t>Coverage.extension</t>
   </si>
   <si>
+    <t xml:space="preserve">Extension
+</t>
+  </si>
+  <si>
+    <t>Extension</t>
+  </si>
+  <si>
+    <t>An Extension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>DomainResource.extension</t>
+  </si>
+  <si>
+    <t>Coverage.extension:CardInfo</t>
+  </si>
+  <si>
+    <t>CardInfo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://spms.min-saude.pt/iop/extensions/coverage-card-info}
+</t>
+  </si>
+  <si>
+    <t>Informações sobre o cartão do beneficiário relativo a entidade</t>
+  </si>
+  <si>
+    <t>Extensão para indicar a data e hora da próxima consulta da mesma especialidade no mesmo âmbito da emissão da prescrição</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() | (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
+    <t>Coverage.modifierExtension</t>
+  </si>
+  <si>
     <t>extensions
 user content</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension
-</t>
-  </si>
-  <si>
-    <t>Additional Content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource. In order to make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+    <t>Extensions that cannot be ignored</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource, and that modifies the understanding of the element that contains it. Usually modifier elements provide negation or qualification. In order to make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.</t>
   </si>
   <si>
     <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t>DomainResource.extension</t>
-  </si>
-  <si>
-    <t>Coverage.modifierExtension</t>
-  </si>
-  <si>
-    <t>Extensions that cannot be ignored</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource, and that modifies the understanding of the element that contains it. Usually modifier elements provide negation or qualification. In order to make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.</t>
   </si>
   <si>
     <t>DomainResource.modifierExtension</t>
@@ -483,9 +514,6 @@
 </t>
   </si>
   <si>
-    <t>open</t>
-  </si>
-  <si>
     <t>Event.identifier</t>
   </si>
   <si>
@@ -538,11 +566,10 @@
     <t>Coverage.identifier.extension</t>
   </si>
   <si>
+    <t>Additional Content defined by implementations</t>
+  </si>
+  <si>
     <t>May be used to represent additional information that is not part of the basic definition of the element. In order to make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:url}
-</t>
   </si>
   <si>
     <t>Extensions are always sliced by (at least) url</t>
@@ -1754,7 +1781,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AQ73"/>
+  <dimension ref="A1:AQ74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1773,7 +1800,7 @@
     <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="44.5546875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="68.03125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2804,7 +2831,7 @@
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>134</v>
+        <v>80</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
@@ -2814,7 +2841,7 @@
         <v>82</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="I9" t="s" s="2">
         <v>80</v>
@@ -2823,17 +2850,15 @@
         <v>80</v>
       </c>
       <c r="K9" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="L9" t="s" s="2">
         <v>135</v>
       </c>
-      <c r="L9" t="s" s="2">
+      <c r="M9" t="s" s="2">
         <v>136</v>
       </c>
-      <c r="M9" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="N9" t="s" s="2">
-        <v>138</v>
-      </c>
+      <c r="N9" s="2"/>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
         <v>80</v>
@@ -2870,16 +2895,14 @@
         <v>80</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC9" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="AC9" s="2"/>
       <c r="AD9" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>80</v>
+        <v>138</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>139</v>
@@ -2900,7 +2923,7 @@
         <v>80</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>132</v>
+        <v>80</v>
       </c>
       <c r="AM9" t="s" s="2">
         <v>80</v>
@@ -2923,40 +2946,40 @@
         <v>140</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="C10" s="2"/>
+        <v>133</v>
+      </c>
+      <c r="C10" t="s" s="2">
+        <v>141</v>
+      </c>
       <c r="D10" t="s" s="2">
-        <v>134</v>
+        <v>80</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="H10" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="J10" t="s" s="2">
         <v>80</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="N10" t="s" s="2">
-        <v>138</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="N10" s="2"/>
       <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
         <v>80</v>
@@ -3005,7 +3028,7 @@
         <v>80</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>81</v>
@@ -3014,16 +3037,16 @@
         <v>82</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>80</v>
+        <v>145</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>80</v>
+        <v>146</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>132</v>
+        <v>80</v>
       </c>
       <c r="AM10" t="s" s="2">
         <v>80</v>
@@ -3043,14 +3066,14 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
-        <v>80</v>
+        <v>148</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
@@ -3063,24 +3086,24 @@
         <v>80</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="N11" s="2"/>
-      <c r="O11" t="s" s="2">
-        <v>148</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="N11" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
         <v>80</v>
       </c>
@@ -3116,17 +3139,19 @@
         <v>80</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="AC11" s="2"/>
+        <v>80</v>
+      </c>
+      <c r="AC11" t="s" s="2">
+        <v>80</v>
+      </c>
       <c r="AD11" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>150</v>
+        <v>80</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>81</v>
@@ -3141,37 +3166,35 @@
         <v>80</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>151</v>
+        <v>80</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>80</v>
+        <v>132</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>152</v>
+        <v>80</v>
       </c>
       <c r="AN11" t="s" s="2">
-        <v>153</v>
+        <v>80</v>
       </c>
       <c r="AO11" t="s" s="2">
-        <v>154</v>
+        <v>80</v>
       </c>
       <c r="AP11" t="s" s="2">
-        <v>155</v>
+        <v>80</v>
       </c>
       <c r="AQ11" t="s" s="2">
-        <v>152</v>
+        <v>80</v>
       </c>
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="C12" t="s" s="2">
-        <v>157</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
         <v>80</v>
       </c>
@@ -3180,10 +3203,10 @@
         <v>81</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="I12" t="s" s="2">
         <v>80</v>
@@ -3192,17 +3215,17 @@
         <v>90</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="P12" t="s" s="2">
         <v>80</v>
@@ -3239,19 +3262,17 @@
         <v>80</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC12" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>158</v>
+      </c>
+      <c r="AC12" s="2"/>
       <c r="AD12" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>80</v>
+        <v>138</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>81</v>
@@ -3266,35 +3287,37 @@
         <v>80</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="AL12" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="AO12" t="s" s="2">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="AP12" t="s" s="2">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="AQ12" t="s" s="2">
-        <v>152</v>
+        <v>160</v>
       </c>
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="C13" s="2"/>
+        <v>153</v>
+      </c>
+      <c r="C13" t="s" s="2">
+        <v>165</v>
+      </c>
       <c r="D13" t="s" s="2">
         <v>80</v>
       </c>
@@ -3306,25 +3329,27 @@
         <v>89</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="I13" t="s" s="2">
         <v>80</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="N13" s="2"/>
-      <c r="O13" s="2"/>
+      <c r="O13" t="s" s="2">
+        <v>157</v>
+      </c>
       <c r="P13" t="s" s="2">
         <v>80</v>
       </c>
@@ -3372,13 +3397,13 @@
         <v>80</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>164</v>
+        <v>153</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>80</v>
@@ -3387,44 +3412,44 @@
         <v>80</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>80</v>
+        <v>159</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>165</v>
+        <v>80</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>80</v>
+        <v>160</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>80</v>
+        <v>161</v>
       </c>
       <c r="AO13" t="s" s="2">
-        <v>80</v>
+        <v>162</v>
       </c>
       <c r="AP13" t="s" s="2">
-        <v>80</v>
+        <v>163</v>
       </c>
       <c r="AQ13" t="s" s="2">
-        <v>80</v>
+        <v>160</v>
       </c>
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>134</v>
+        <v>80</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>80</v>
@@ -3436,17 +3461,15 @@
         <v>80</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>135</v>
+        <v>169</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>136</v>
+        <v>170</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="N14" t="s" s="2">
-        <v>138</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="N14" s="2"/>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
         <v>80</v>
@@ -3483,25 +3506,25 @@
         <v>80</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>169</v>
+        <v>80</v>
       </c>
       <c r="AC14" t="s" s="2">
-        <v>170</v>
+        <v>80</v>
       </c>
       <c r="AD14" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>150</v>
+        <v>80</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>80</v>
@@ -3513,7 +3536,7 @@
         <v>80</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="AM14" t="s" s="2">
         <v>80</v>
@@ -3533,46 +3556,44 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>80</v>
+        <v>148</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>108</v>
+        <v>134</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="O15" t="s" s="2">
-        <v>177</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
         <v>80</v>
       </c>
@@ -3596,37 +3617,37 @@
         <v>80</v>
       </c>
       <c r="X15" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y15" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z15" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA15" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB15" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="AC15" t="s" s="2">
         <v>178</v>
       </c>
-      <c r="Y15" t="s" s="2">
+      <c r="AD15" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE15" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="AF15" t="s" s="2">
         <v>179</v>
       </c>
-      <c r="Z15" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="AA15" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB15" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC15" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD15" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE15" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF15" t="s" s="2">
-        <v>181</v>
-      </c>
       <c r="AG15" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>80</v>
@@ -3638,7 +3659,7 @@
         <v>80</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="AM15" t="s" s="2">
         <v>80</v>
@@ -3647,7 +3668,7 @@
         <v>80</v>
       </c>
       <c r="AO15" t="s" s="2">
-        <v>132</v>
+        <v>80</v>
       </c>
       <c r="AP15" t="s" s="2">
         <v>80</v>
@@ -3658,10 +3679,10 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -3678,25 +3699,25 @@
         <v>80</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="J16" t="s" s="2">
         <v>90</v>
       </c>
       <c r="K16" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="L16" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="M16" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="N16" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="O16" t="s" s="2">
         <v>185</v>
-      </c>
-      <c r="L16" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="M16" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="N16" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="O16" t="s" s="2">
-        <v>189</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>80</v>
@@ -3721,50 +3742,50 @@
         <v>80</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>112</v>
+        <v>186</v>
       </c>
       <c r="Y16" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="Z16" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="AA16" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB16" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC16" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD16" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE16" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF16" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="AG16" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH16" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI16" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ16" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK16" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL16" t="s" s="2">
         <v>190</v>
       </c>
-      <c r="Z16" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="AA16" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB16" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC16" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD16" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE16" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF16" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="AG16" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH16" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AI16" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ16" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AK16" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL16" t="s" s="2">
-        <v>182</v>
-      </c>
       <c r="AM16" t="s" s="2">
         <v>80</v>
       </c>
@@ -3772,7 +3793,7 @@
         <v>80</v>
       </c>
       <c r="AO16" t="s" s="2">
-        <v>193</v>
+        <v>132</v>
       </c>
       <c r="AP16" t="s" s="2">
         <v>80</v>
@@ -3783,10 +3804,10 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3806,19 +3827,23 @@
         <v>80</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>161</v>
+        <v>193</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>162</v>
+        <v>194</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="N17" s="2"/>
-      <c r="O17" s="2"/>
+        <v>195</v>
+      </c>
+      <c r="N17" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="O17" t="s" s="2">
+        <v>197</v>
+      </c>
       <c r="P17" t="s" s="2">
         <v>80</v>
       </c>
@@ -3842,13 +3867,13 @@
         <v>80</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>80</v>
+        <v>112</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>80</v>
+        <v>198</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>80</v>
+        <v>199</v>
       </c>
       <c r="AA17" t="s" s="2">
         <v>80</v>
@@ -3866,7 +3891,7 @@
         <v>80</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>164</v>
+        <v>200</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>81</v>
@@ -3884,7 +3909,7 @@
         <v>80</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>165</v>
+        <v>190</v>
       </c>
       <c r="AM17" t="s" s="2">
         <v>80</v>
@@ -3893,7 +3918,7 @@
         <v>80</v>
       </c>
       <c r="AO17" t="s" s="2">
-        <v>80</v>
+        <v>201</v>
       </c>
       <c r="AP17" t="s" s="2">
         <v>80</v>
@@ -3904,21 +3929,21 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>134</v>
+        <v>80</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>80</v>
@@ -3930,17 +3955,15 @@
         <v>80</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>135</v>
+        <v>169</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>136</v>
+        <v>170</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="N18" t="s" s="2">
-        <v>138</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="N18" s="2"/>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
         <v>80</v>
@@ -3977,25 +4000,25 @@
         <v>80</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>169</v>
+        <v>80</v>
       </c>
       <c r="AC18" t="s" s="2">
-        <v>170</v>
+        <v>80</v>
       </c>
       <c r="AD18" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>150</v>
+        <v>80</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>80</v>
@@ -4007,7 +4030,7 @@
         <v>80</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="AM18" t="s" s="2">
         <v>80</v>
@@ -4027,14 +4050,14 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>80</v>
+        <v>148</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
@@ -4050,23 +4073,21 @@
         <v>80</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>200</v>
+        <v>134</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>201</v>
+        <v>176</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>202</v>
+        <v>177</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="O19" t="s" s="2">
-        <v>204</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
         <v>80</v>
       </c>
@@ -4102,19 +4123,19 @@
         <v>80</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>80</v>
+        <v>137</v>
       </c>
       <c r="AC19" t="s" s="2">
-        <v>80</v>
+        <v>178</v>
       </c>
       <c r="AD19" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>80</v>
+        <v>138</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>205</v>
+        <v>179</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>81</v>
@@ -4132,7 +4153,7 @@
         <v>80</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>206</v>
+        <v>173</v>
       </c>
       <c r="AM19" t="s" s="2">
         <v>80</v>
@@ -4141,7 +4162,7 @@
         <v>80</v>
       </c>
       <c r="AO19" t="s" s="2">
-        <v>207</v>
+        <v>80</v>
       </c>
       <c r="AP19" t="s" s="2">
         <v>80</v>
@@ -4152,10 +4173,10 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4166,7 +4187,7 @@
         <v>81</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>80</v>
@@ -4175,19 +4196,23 @@
         <v>80</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>161</v>
+        <v>208</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>162</v>
+        <v>209</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="N20" s="2"/>
-      <c r="O20" s="2"/>
+        <v>210</v>
+      </c>
+      <c r="N20" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="O20" t="s" s="2">
+        <v>212</v>
+      </c>
       <c r="P20" t="s" s="2">
         <v>80</v>
       </c>
@@ -4235,13 +4260,13 @@
         <v>80</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>164</v>
+        <v>213</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>80</v>
@@ -4253,7 +4278,7 @@
         <v>80</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>165</v>
+        <v>214</v>
       </c>
       <c r="AM20" t="s" s="2">
         <v>80</v>
@@ -4262,7 +4287,7 @@
         <v>80</v>
       </c>
       <c r="AO20" t="s" s="2">
-        <v>80</v>
+        <v>215</v>
       </c>
       <c r="AP20" t="s" s="2">
         <v>80</v>
@@ -4273,21 +4298,21 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>134</v>
+        <v>80</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>80</v>
@@ -4299,17 +4324,15 @@
         <v>80</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>135</v>
+        <v>169</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>136</v>
+        <v>170</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>138</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="N21" s="2"/>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
         <v>80</v>
@@ -4346,25 +4369,25 @@
         <v>80</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>169</v>
+        <v>80</v>
       </c>
       <c r="AC21" t="s" s="2">
-        <v>170</v>
+        <v>80</v>
       </c>
       <c r="AD21" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>150</v>
+        <v>80</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>80</v>
@@ -4376,7 +4399,7 @@
         <v>80</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>80</v>
@@ -4396,21 +4419,21 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>80</v>
+        <v>148</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>80</v>
@@ -4419,23 +4442,21 @@
         <v>80</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>102</v>
+        <v>134</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>214</v>
+        <v>176</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>215</v>
+        <v>177</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="O22" t="s" s="2">
-        <v>217</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
         <v>80</v>
       </c>
@@ -4471,25 +4492,25 @@
         <v>80</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>80</v>
+        <v>137</v>
       </c>
       <c r="AC22" t="s" s="2">
-        <v>80</v>
+        <v>178</v>
       </c>
       <c r="AD22" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>80</v>
+        <v>138</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>218</v>
+        <v>179</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>80</v>
@@ -4501,7 +4522,7 @@
         <v>80</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>219</v>
+        <v>173</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>80</v>
@@ -4510,7 +4531,7 @@
         <v>80</v>
       </c>
       <c r="AO22" t="s" s="2">
-        <v>220</v>
+        <v>80</v>
       </c>
       <c r="AP22" t="s" s="2">
         <v>80</v>
@@ -4521,10 +4542,10 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="B23" t="s" s="2">
         <v>221</v>
-      </c>
-      <c r="B23" t="s" s="2">
-        <v>222</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4547,18 +4568,20 @@
         <v>90</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>161</v>
+        <v>102</v>
       </c>
       <c r="L23" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="M23" t="s" s="2">
         <v>223</v>
       </c>
-      <c r="M23" t="s" s="2">
+      <c r="N23" t="s" s="2">
         <v>224</v>
       </c>
-      <c r="N23" t="s" s="2">
+      <c r="O23" t="s" s="2">
         <v>225</v>
       </c>
-      <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
         <v>80</v>
       </c>
@@ -4670,7 +4693,7 @@
         <v>90</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>108</v>
+        <v>169</v>
       </c>
       <c r="L24" t="s" s="2">
         <v>231</v>
@@ -4678,10 +4701,10 @@
       <c r="M24" t="s" s="2">
         <v>232</v>
       </c>
-      <c r="N24" s="2"/>
-      <c r="O24" t="s" s="2">
+      <c r="N24" t="s" s="2">
         <v>233</v>
       </c>
+      <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
         <v>80</v>
       </c>
@@ -4690,7 +4713,7 @@
         <v>80</v>
       </c>
       <c r="S24" t="s" s="2">
-        <v>157</v>
+        <v>80</v>
       </c>
       <c r="T24" t="s" s="2">
         <v>80</v>
@@ -4793,7 +4816,7 @@
         <v>90</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>161</v>
+        <v>108</v>
       </c>
       <c r="L25" t="s" s="2">
         <v>239</v>
@@ -4813,7 +4836,7 @@
         <v>80</v>
       </c>
       <c r="S25" t="s" s="2">
-        <v>80</v>
+        <v>165</v>
       </c>
       <c r="T25" t="s" s="2">
         <v>80</v>
@@ -4916,19 +4939,17 @@
         <v>90</v>
       </c>
       <c r="K26" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="L26" t="s" s="2">
         <v>247</v>
       </c>
-      <c r="L26" t="s" s="2">
+      <c r="M26" t="s" s="2">
         <v>248</v>
       </c>
-      <c r="M26" t="s" s="2">
+      <c r="N26" s="2"/>
+      <c r="O26" t="s" s="2">
         <v>249</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>250</v>
-      </c>
-      <c r="O26" t="s" s="2">
-        <v>251</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>80</v>
@@ -4977,34 +4998,34 @@
         <v>80</v>
       </c>
       <c r="AF26" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="AG26" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH26" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI26" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ26" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK26" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL26" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="AM26" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN26" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO26" t="s" s="2">
         <v>252</v>
-      </c>
-      <c r="AG26" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH26" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AI26" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ26" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AK26" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL26" t="s" s="2">
-        <v>253</v>
-      </c>
-      <c r="AM26" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN26" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO26" t="s" s="2">
-        <v>254</v>
       </c>
       <c r="AP26" t="s" s="2">
         <v>80</v>
@@ -5015,10 +5036,10 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -5041,19 +5062,19 @@
         <v>90</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>161</v>
+        <v>255</v>
       </c>
       <c r="L27" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="M27" t="s" s="2">
         <v>257</v>
       </c>
-      <c r="M27" t="s" s="2">
+      <c r="N27" t="s" s="2">
         <v>258</v>
       </c>
-      <c r="N27" t="s" s="2">
+      <c r="O27" t="s" s="2">
         <v>259</v>
-      </c>
-      <c r="O27" t="s" s="2">
-        <v>260</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>80</v>
@@ -5102,34 +5123,34 @@
         <v>80</v>
       </c>
       <c r="AF27" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="AG27" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH27" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI27" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ27" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK27" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL27" t="s" s="2">
         <v>261</v>
       </c>
-      <c r="AG27" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH27" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AI27" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ27" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AK27" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL27" t="s" s="2">
+      <c r="AM27" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN27" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO27" t="s" s="2">
         <v>262</v>
-      </c>
-      <c r="AM27" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN27" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO27" t="s" s="2">
-        <v>263</v>
       </c>
       <c r="AP27" t="s" s="2">
         <v>80</v>
@@ -5140,10 +5161,10 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="B28" t="s" s="2">
         <v>264</v>
-      </c>
-      <c r="B28" t="s" s="2">
-        <v>265</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5166,15 +5187,17 @@
         <v>90</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>102</v>
+        <v>169</v>
       </c>
       <c r="L28" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="M28" t="s" s="2">
         <v>266</v>
       </c>
-      <c r="M28" t="s" s="2">
+      <c r="N28" t="s" s="2">
         <v>267</v>
       </c>
-      <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
         <v>268</v>
       </c>
@@ -5186,73 +5209,73 @@
         <v>80</v>
       </c>
       <c r="S28" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T28" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U28" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V28" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W28" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X28" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y28" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z28" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA28" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB28" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC28" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD28" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE28" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF28" t="s" s="2">
         <v>269</v>
       </c>
-      <c r="T28" t="s" s="2">
+      <c r="AG28" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH28" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI28" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ28" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK28" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL28" t="s" s="2">
         <v>270</v>
       </c>
-      <c r="U28" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V28" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W28" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X28" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y28" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z28" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA28" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB28" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC28" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD28" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE28" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF28" t="s" s="2">
+      <c r="AM28" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN28" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO28" t="s" s="2">
         <v>271</v>
-      </c>
-      <c r="AG28" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH28" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AI28" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ28" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AK28" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL28" t="s" s="2">
-        <v>272</v>
-      </c>
-      <c r="AM28" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN28" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO28" t="s" s="2">
-        <v>273</v>
       </c>
       <c r="AP28" t="s" s="2">
         <v>80</v>
@@ -5263,10 +5286,10 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5289,18 +5312,18 @@
         <v>90</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>161</v>
+        <v>102</v>
       </c>
       <c r="L29" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="M29" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="N29" s="2"/>
+      <c r="O29" t="s" s="2">
         <v>276</v>
       </c>
-      <c r="M29" t="s" s="2">
-        <v>277</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>278</v>
-      </c>
-      <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
         <v>80</v>
       </c>
@@ -5309,73 +5332,73 @@
         <v>80</v>
       </c>
       <c r="S29" t="s" s="2">
-        <v>80</v>
+        <v>277</v>
       </c>
       <c r="T29" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="U29" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V29" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W29" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X29" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y29" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z29" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA29" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB29" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC29" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD29" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE29" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF29" t="s" s="2">
         <v>279</v>
       </c>
-      <c r="U29" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V29" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W29" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X29" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y29" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z29" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA29" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB29" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC29" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD29" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE29" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF29" t="s" s="2">
+      <c r="AG29" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH29" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI29" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ29" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK29" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL29" t="s" s="2">
         <v>280</v>
       </c>
-      <c r="AG29" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH29" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AI29" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ29" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AK29" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL29" t="s" s="2">
+      <c r="AM29" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN29" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO29" t="s" s="2">
         <v>281</v>
-      </c>
-      <c r="AM29" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN29" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO29" t="s" s="2">
-        <v>282</v>
       </c>
       <c r="AP29" t="s" s="2">
         <v>80</v>
@@ -5386,10 +5409,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="B30" t="s" s="2">
         <v>283</v>
-      </c>
-      <c r="B30" t="s" s="2">
-        <v>284</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5412,15 +5435,17 @@
         <v>90</v>
       </c>
       <c r="K30" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="L30" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="M30" t="s" s="2">
         <v>285</v>
       </c>
-      <c r="L30" t="s" s="2">
+      <c r="N30" t="s" s="2">
         <v>286</v>
       </c>
-      <c r="M30" t="s" s="2">
-        <v>287</v>
-      </c>
-      <c r="N30" s="2"/>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
         <v>80</v>
@@ -5433,7 +5458,7 @@
         <v>80</v>
       </c>
       <c r="T30" t="s" s="2">
-        <v>80</v>
+        <v>287</v>
       </c>
       <c r="U30" t="s" s="2">
         <v>80</v>
@@ -5541,9 +5566,7 @@
       <c r="M31" t="s" s="2">
         <v>295</v>
       </c>
-      <c r="N31" t="s" s="2">
-        <v>296</v>
-      </c>
+      <c r="N31" s="2"/>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
         <v>80</v>
@@ -5592,34 +5615,34 @@
         <v>80</v>
       </c>
       <c r="AF31" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="AG31" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH31" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI31" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ31" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK31" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL31" t="s" s="2">
         <v>297</v>
       </c>
-      <c r="AG31" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH31" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AI31" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ31" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AK31" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL31" t="s" s="2">
+      <c r="AM31" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN31" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO31" t="s" s="2">
         <v>298</v>
-      </c>
-      <c r="AM31" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN31" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO31" t="s" s="2">
-        <v>299</v>
       </c>
       <c r="AP31" t="s" s="2">
         <v>80</v>
@@ -5630,7 +5653,7 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B32" t="s" s="2">
         <v>300</v>
@@ -5650,22 +5673,22 @@
         <v>80</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="J32" t="s" s="2">
         <v>90</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>108</v>
+        <v>301</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
@@ -5691,32 +5714,32 @@
         <v>80</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>178</v>
+        <v>80</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>304</v>
+        <v>80</v>
       </c>
       <c r="Z32" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA32" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB32" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC32" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD32" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE32" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF32" t="s" s="2">
         <v>305</v>
       </c>
-      <c r="AA32" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB32" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC32" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD32" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE32" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF32" t="s" s="2">
-        <v>300</v>
-      </c>
       <c r="AG32" t="s" s="2">
         <v>81</v>
       </c>
@@ -5730,25 +5753,25 @@
         <v>80</v>
       </c>
       <c r="AK32" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL32" t="s" s="2">
         <v>306</v>
       </c>
-      <c r="AL32" t="s" s="2">
-        <v>80</v>
-      </c>
       <c r="AM32" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN32" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO32" t="s" s="2">
         <v>307</v>
       </c>
-      <c r="AN32" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO32" t="s" s="2">
-        <v>80</v>
-      </c>
       <c r="AP32" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AQ32" t="s" s="2">
-        <v>307</v>
+        <v>80</v>
       </c>
     </row>
     <row r="33" hidden="true">
@@ -5773,13 +5796,13 @@
         <v>80</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="J33" t="s" s="2">
         <v>90</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>185</v>
+        <v>108</v>
       </c>
       <c r="L33" t="s" s="2">
         <v>309</v>
@@ -5787,10 +5810,10 @@
       <c r="M33" t="s" s="2">
         <v>310</v>
       </c>
-      <c r="N33" s="2"/>
-      <c r="O33" t="s" s="2">
+      <c r="N33" t="s" s="2">
         <v>311</v>
       </c>
+      <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
         <v>80</v>
       </c>
@@ -5814,13 +5837,13 @@
         <v>80</v>
       </c>
       <c r="X33" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="Y33" t="s" s="2">
         <v>312</v>
       </c>
-      <c r="Y33" t="s" s="2">
+      <c r="Z33" t="s" s="2">
         <v>313</v>
-      </c>
-      <c r="Z33" t="s" s="2">
-        <v>314</v>
       </c>
       <c r="AA33" t="s" s="2">
         <v>80</v>
@@ -5853,7 +5876,7 @@
         <v>80</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>80</v>
+        <v>314</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>80</v>
@@ -5865,7 +5888,7 @@
         <v>80</v>
       </c>
       <c r="AO33" t="s" s="2">
-        <v>316</v>
+        <v>80</v>
       </c>
       <c r="AP33" t="s" s="2">
         <v>80</v>
@@ -5876,10 +5899,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5899,19 +5922,21 @@
         <v>80</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>161</v>
+        <v>193</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>162</v>
+        <v>317</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>163</v>
+        <v>318</v>
       </c>
       <c r="N34" s="2"/>
-      <c r="O34" s="2"/>
+      <c r="O34" t="s" s="2">
+        <v>319</v>
+      </c>
       <c r="P34" t="s" s="2">
         <v>80</v>
       </c>
@@ -5935,13 +5960,13 @@
         <v>80</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>80</v>
+        <v>320</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>80</v>
+        <v>321</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>80</v>
+        <v>322</v>
       </c>
       <c r="AA34" t="s" s="2">
         <v>80</v>
@@ -5959,7 +5984,7 @@
         <v>80</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>164</v>
+        <v>316</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>81</v>
@@ -5977,41 +6002,41 @@
         <v>80</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>165</v>
+        <v>80</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>80</v>
+        <v>323</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO34" t="s" s="2">
-        <v>80</v>
+        <v>324</v>
       </c>
       <c r="AP34" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AQ34" t="s" s="2">
-        <v>80</v>
+        <v>323</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>318</v>
+        <v>325</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>318</v>
+        <v>325</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>134</v>
+        <v>80</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>80</v>
@@ -6023,17 +6048,15 @@
         <v>80</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>135</v>
+        <v>169</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>136</v>
+        <v>170</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>138</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="N35" s="2"/>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
         <v>80</v>
@@ -6070,25 +6093,25 @@
         <v>80</v>
       </c>
       <c r="AB35" t="s" s="2">
-        <v>169</v>
+        <v>80</v>
       </c>
       <c r="AC35" t="s" s="2">
-        <v>170</v>
+        <v>80</v>
       </c>
       <c r="AD35" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>150</v>
+        <v>80</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>80</v>
@@ -6100,7 +6123,7 @@
         <v>80</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>80</v>
@@ -6120,14 +6143,14 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>319</v>
+        <v>326</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>319</v>
+        <v>326</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>80</v>
+        <v>148</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
@@ -6143,23 +6166,21 @@
         <v>80</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>200</v>
+        <v>134</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>201</v>
+        <v>176</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>202</v>
+        <v>177</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="O36" t="s" s="2">
-        <v>204</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
         <v>80</v>
       </c>
@@ -6195,17 +6216,19 @@
         <v>80</v>
       </c>
       <c r="AB36" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="AC36" s="2"/>
+        <v>137</v>
+      </c>
+      <c r="AC36" t="s" s="2">
+        <v>178</v>
+      </c>
       <c r="AD36" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>205</v>
+        <v>179</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>81</v>
@@ -6223,7 +6246,7 @@
         <v>80</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>206</v>
+        <v>173</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>80</v>
@@ -6232,7 +6255,7 @@
         <v>80</v>
       </c>
       <c r="AO36" t="s" s="2">
-        <v>207</v>
+        <v>80</v>
       </c>
       <c r="AP36" t="s" s="2">
         <v>80</v>
@@ -6243,14 +6266,12 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>319</v>
-      </c>
-      <c r="C37" t="s" s="2">
-        <v>322</v>
-      </c>
+        <v>327</v>
+      </c>
+      <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
         <v>80</v>
       </c>
@@ -6259,10 +6280,10 @@
         <v>81</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="I37" t="s" s="2">
         <v>80</v>
@@ -6271,19 +6292,19 @@
         <v>90</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>201</v>
+        <v>209</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="O37" t="s" s="2">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="P37" t="s" s="2">
         <v>80</v>
@@ -6320,19 +6341,17 @@
         <v>80</v>
       </c>
       <c r="AB37" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC37" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>328</v>
+      </c>
+      <c r="AC37" s="2"/>
       <c r="AD37" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>80</v>
+        <v>138</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>81</v>
@@ -6350,7 +6369,7 @@
         <v>80</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>80</v>
@@ -6359,7 +6378,7 @@
         <v>80</v>
       </c>
       <c r="AO37" t="s" s="2">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="AP37" t="s" s="2">
         <v>80</v>
@@ -6370,12 +6389,14 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>324</v>
-      </c>
-      <c r="C38" s="2"/>
+        <v>327</v>
+      </c>
+      <c r="C38" t="s" s="2">
+        <v>330</v>
+      </c>
       <c r="D38" t="s" s="2">
         <v>80</v>
       </c>
@@ -6387,25 +6408,29 @@
         <v>89</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="I38" t="s" s="2">
         <v>80</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>161</v>
+        <v>208</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>162</v>
+        <v>209</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="N38" s="2"/>
-      <c r="O38" s="2"/>
+        <v>210</v>
+      </c>
+      <c r="N38" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="O38" t="s" s="2">
+        <v>212</v>
+      </c>
       <c r="P38" t="s" s="2">
         <v>80</v>
       </c>
@@ -6453,13 +6478,13 @@
         <v>80</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>164</v>
+        <v>213</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>80</v>
@@ -6471,7 +6496,7 @@
         <v>80</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>165</v>
+        <v>214</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>80</v>
@@ -6480,7 +6505,7 @@
         <v>80</v>
       </c>
       <c r="AO38" t="s" s="2">
-        <v>80</v>
+        <v>215</v>
       </c>
       <c r="AP38" t="s" s="2">
         <v>80</v>
@@ -6491,21 +6516,21 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>134</v>
+        <v>80</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>80</v>
@@ -6517,17 +6542,15 @@
         <v>80</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>135</v>
+        <v>169</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>136</v>
+        <v>170</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>138</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="N39" s="2"/>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
         <v>80</v>
@@ -6564,25 +6587,25 @@
         <v>80</v>
       </c>
       <c r="AB39" t="s" s="2">
-        <v>169</v>
+        <v>80</v>
       </c>
       <c r="AC39" t="s" s="2">
-        <v>170</v>
+        <v>80</v>
       </c>
       <c r="AD39" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>150</v>
+        <v>80</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>80</v>
@@ -6594,7 +6617,7 @@
         <v>80</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>80</v>
@@ -6614,21 +6637,21 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>80</v>
+        <v>148</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>80</v>
@@ -6637,23 +6660,21 @@
         <v>80</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>102</v>
+        <v>134</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>214</v>
+        <v>176</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>215</v>
+        <v>177</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="O40" t="s" s="2">
-        <v>217</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
         <v>80</v>
       </c>
@@ -6662,7 +6683,7 @@
         <v>80</v>
       </c>
       <c r="S40" t="s" s="2">
-        <v>329</v>
+        <v>80</v>
       </c>
       <c r="T40" t="s" s="2">
         <v>80</v>
@@ -6689,25 +6710,25 @@
         <v>80</v>
       </c>
       <c r="AB40" t="s" s="2">
-        <v>80</v>
+        <v>137</v>
       </c>
       <c r="AC40" t="s" s="2">
-        <v>80</v>
+        <v>178</v>
       </c>
       <c r="AD40" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>80</v>
+        <v>138</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>218</v>
+        <v>179</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>80</v>
@@ -6719,7 +6740,7 @@
         <v>80</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>219</v>
+        <v>173</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>80</v>
@@ -6728,7 +6749,7 @@
         <v>80</v>
       </c>
       <c r="AO40" t="s" s="2">
-        <v>220</v>
+        <v>80</v>
       </c>
       <c r="AP40" t="s" s="2">
         <v>80</v>
@@ -6739,10 +6760,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6765,18 +6786,20 @@
         <v>90</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>161</v>
+        <v>102</v>
       </c>
       <c r="L41" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="M41" t="s" s="2">
         <v>223</v>
       </c>
-      <c r="M41" t="s" s="2">
+      <c r="N41" t="s" s="2">
         <v>224</v>
       </c>
-      <c r="N41" t="s" s="2">
+      <c r="O41" t="s" s="2">
         <v>225</v>
       </c>
-      <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
         <v>80</v>
       </c>
@@ -6785,7 +6808,7 @@
         <v>80</v>
       </c>
       <c r="S41" t="s" s="2">
-        <v>80</v>
+        <v>337</v>
       </c>
       <c r="T41" t="s" s="2">
         <v>80</v>
@@ -6862,10 +6885,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>333</v>
+        <v>339</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6873,7 +6896,7 @@
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="G42" t="s" s="2">
         <v>89</v>
@@ -6888,7 +6911,7 @@
         <v>90</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>108</v>
+        <v>169</v>
       </c>
       <c r="L42" t="s" s="2">
         <v>231</v>
@@ -6896,10 +6919,10 @@
       <c r="M42" t="s" s="2">
         <v>232</v>
       </c>
-      <c r="N42" s="2"/>
-      <c r="O42" t="s" s="2">
+      <c r="N42" t="s" s="2">
         <v>233</v>
       </c>
+      <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
         <v>80</v>
       </c>
@@ -6908,7 +6931,7 @@
         <v>80</v>
       </c>
       <c r="S42" t="s" s="2">
-        <v>334</v>
+        <v>80</v>
       </c>
       <c r="T42" t="s" s="2">
         <v>80</v>
@@ -6985,10 +7008,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6996,7 +7019,7 @@
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="G43" t="s" s="2">
         <v>89</v>
@@ -7011,7 +7034,7 @@
         <v>90</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>161</v>
+        <v>108</v>
       </c>
       <c r="L43" t="s" s="2">
         <v>239</v>
@@ -7031,7 +7054,7 @@
         <v>80</v>
       </c>
       <c r="S43" t="s" s="2">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="T43" t="s" s="2">
         <v>80</v>
@@ -7108,10 +7131,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7134,19 +7157,17 @@
         <v>90</v>
       </c>
       <c r="K44" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="L44" t="s" s="2">
         <v>247</v>
       </c>
-      <c r="L44" t="s" s="2">
+      <c r="M44" t="s" s="2">
         <v>248</v>
       </c>
-      <c r="M44" t="s" s="2">
+      <c r="N44" s="2"/>
+      <c r="O44" t="s" s="2">
         <v>249</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>250</v>
-      </c>
-      <c r="O44" t="s" s="2">
-        <v>251</v>
       </c>
       <c r="P44" t="s" s="2">
         <v>80</v>
@@ -7156,7 +7177,7 @@
         <v>80</v>
       </c>
       <c r="S44" t="s" s="2">
-        <v>80</v>
+        <v>345</v>
       </c>
       <c r="T44" t="s" s="2">
         <v>80</v>
@@ -7195,34 +7216,34 @@
         <v>80</v>
       </c>
       <c r="AF44" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="AG44" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH44" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI44" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ44" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK44" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL44" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="AM44" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN44" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO44" t="s" s="2">
         <v>252</v>
-      </c>
-      <c r="AG44" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH44" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AI44" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ44" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AK44" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL44" t="s" s="2">
-        <v>253</v>
-      </c>
-      <c r="AM44" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN44" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO44" t="s" s="2">
-        <v>254</v>
       </c>
       <c r="AP44" t="s" s="2">
         <v>80</v>
@@ -7233,10 +7254,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>340</v>
+        <v>347</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7259,19 +7280,19 @@
         <v>90</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>161</v>
+        <v>255</v>
       </c>
       <c r="L45" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="M45" t="s" s="2">
         <v>257</v>
       </c>
-      <c r="M45" t="s" s="2">
+      <c r="N45" t="s" s="2">
         <v>258</v>
       </c>
-      <c r="N45" t="s" s="2">
+      <c r="O45" t="s" s="2">
         <v>259</v>
-      </c>
-      <c r="O45" t="s" s="2">
-        <v>260</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>80</v>
@@ -7320,34 +7341,34 @@
         <v>80</v>
       </c>
       <c r="AF45" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="AG45" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH45" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI45" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ45" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK45" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL45" t="s" s="2">
         <v>261</v>
       </c>
-      <c r="AG45" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH45" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AI45" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ45" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AK45" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL45" t="s" s="2">
+      <c r="AM45" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN45" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO45" t="s" s="2">
         <v>262</v>
-      </c>
-      <c r="AM45" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN45" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO45" t="s" s="2">
-        <v>263</v>
       </c>
       <c r="AP45" t="s" s="2">
         <v>80</v>
@@ -7358,10 +7379,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>341</v>
+        <v>348</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>341</v>
+        <v>348</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7384,16 +7405,20 @@
         <v>90</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>342</v>
+        <v>169</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>343</v>
+        <v>265</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>344</v>
-      </c>
-      <c r="N46" s="2"/>
-      <c r="O46" s="2"/>
+        <v>266</v>
+      </c>
+      <c r="N46" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="O46" t="s" s="2">
+        <v>268</v>
+      </c>
       <c r="P46" t="s" s="2">
         <v>80</v>
       </c>
@@ -7441,7 +7466,7 @@
         <v>80</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>341</v>
+        <v>269</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>81</v>
@@ -7459,22 +7484,22 @@
         <v>80</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>80</v>
+        <v>270</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>345</v>
+        <v>80</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>346</v>
+        <v>80</v>
       </c>
       <c r="AO46" t="s" s="2">
-        <v>347</v>
+        <v>271</v>
       </c>
       <c r="AP46" t="s" s="2">
-        <v>348</v>
+        <v>80</v>
       </c>
       <c r="AQ46" t="s" s="2">
-        <v>345</v>
+        <v>80</v>
       </c>
     </row>
     <row r="47" hidden="true">
@@ -7583,27 +7608,27 @@
         <v>80</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>345</v>
+        <v>353</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>346</v>
+        <v>354</v>
       </c>
       <c r="AO47" t="s" s="2">
-        <v>347</v>
+        <v>355</v>
       </c>
       <c r="AP47" t="s" s="2">
-        <v>348</v>
+        <v>356</v>
       </c>
       <c r="AQ47" t="s" s="2">
-        <v>345</v>
+        <v>353</v>
       </c>
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7626,13 +7651,13 @@
         <v>90</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>161</v>
+        <v>358</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
@@ -7683,48 +7708,48 @@
         <v>80</v>
       </c>
       <c r="AF48" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="AG48" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH48" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI48" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ48" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK48" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL48" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM48" t="s" s="2">
         <v>353</v>
       </c>
-      <c r="AG48" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH48" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AI48" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ48" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AK48" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL48" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM48" t="s" s="2">
-        <v>345</v>
-      </c>
       <c r="AN48" t="s" s="2">
-        <v>346</v>
+        <v>354</v>
       </c>
       <c r="AO48" t="s" s="2">
-        <v>347</v>
+        <v>355</v>
       </c>
       <c r="AP48" t="s" s="2">
-        <v>348</v>
+        <v>356</v>
       </c>
       <c r="AQ48" t="s" s="2">
-        <v>345</v>
+        <v>353</v>
       </c>
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7747,13 +7772,13 @@
         <v>90</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>357</v>
+        <v>169</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
@@ -7804,48 +7829,48 @@
         <v>80</v>
       </c>
       <c r="AF49" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="AG49" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH49" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI49" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ49" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK49" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL49" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM49" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="AN49" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="AO49" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="AP49" t="s" s="2">
         <v>356</v>
       </c>
-      <c r="AG49" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH49" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AI49" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ49" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AK49" t="s" s="2">
-        <v>360</v>
-      </c>
-      <c r="AL49" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM49" t="s" s="2">
-        <v>345</v>
-      </c>
-      <c r="AN49" t="s" s="2">
-        <v>346</v>
-      </c>
-      <c r="AO49" t="s" s="2">
-        <v>347</v>
-      </c>
-      <c r="AP49" t="s" s="2">
-        <v>348</v>
-      </c>
       <c r="AQ49" t="s" s="2">
-        <v>345</v>
+        <v>353</v>
       </c>
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7865,21 +7890,19 @@
         <v>80</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>185</v>
+        <v>365</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="N50" s="2"/>
-      <c r="O50" t="s" s="2">
-        <v>364</v>
-      </c>
+      <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
         <v>80</v>
       </c>
@@ -7903,13 +7926,13 @@
         <v>80</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>365</v>
+        <v>80</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>366</v>
+        <v>80</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>367</v>
+        <v>80</v>
       </c>
       <c r="AA50" t="s" s="2">
         <v>80</v>
@@ -7927,7 +7950,7 @@
         <v>80</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>81</v>
@@ -7942,25 +7965,25 @@
         <v>80</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>80</v>
+        <v>368</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>80</v>
+        <v>353</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>368</v>
+        <v>354</v>
       </c>
       <c r="AO50" t="s" s="2">
-        <v>80</v>
+        <v>355</v>
       </c>
       <c r="AP50" t="s" s="2">
-        <v>80</v>
+        <v>356</v>
       </c>
       <c r="AQ50" t="s" s="2">
-        <v>80</v>
+        <v>353</v>
       </c>
     </row>
     <row r="51" hidden="true">
@@ -7988,10 +8011,10 @@
         <v>80</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>285</v>
+        <v>193</v>
       </c>
       <c r="L51" t="s" s="2">
         <v>370</v>
@@ -8000,7 +8023,9 @@
         <v>371</v>
       </c>
       <c r="N51" s="2"/>
-      <c r="O51" s="2"/>
+      <c r="O51" t="s" s="2">
+        <v>372</v>
+      </c>
       <c r="P51" t="s" s="2">
         <v>80</v>
       </c>
@@ -8024,13 +8049,13 @@
         <v>80</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>80</v>
+        <v>373</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>80</v>
+        <v>374</v>
       </c>
       <c r="Z51" t="s" s="2">
-        <v>80</v>
+        <v>375</v>
       </c>
       <c r="AA51" t="s" s="2">
         <v>80</v>
@@ -8063,33 +8088,33 @@
         <v>80</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>372</v>
+        <v>80</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>373</v>
+        <v>80</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>80</v>
+        <v>376</v>
       </c>
       <c r="AO51" t="s" s="2">
-        <v>374</v>
+        <v>80</v>
       </c>
       <c r="AP51" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AQ51" t="s" s="2">
-        <v>373</v>
+        <v>80</v>
       </c>
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8100,7 +8125,7 @@
         <v>81</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>80</v>
@@ -8112,18 +8137,16 @@
         <v>90</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>376</v>
+        <v>293</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="N52" s="2"/>
-      <c r="O52" t="s" s="2">
-        <v>379</v>
-      </c>
+      <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
         <v>80</v>
       </c>
@@ -8171,13 +8194,13 @@
         <v>80</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>80</v>
@@ -8186,33 +8209,33 @@
         <v>80</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>80</v>
+        <v>380</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>381</v>
+        <v>80</v>
       </c>
       <c r="AO52" t="s" s="2">
         <v>382</v>
       </c>
       <c r="AP52" t="s" s="2">
-        <v>383</v>
+        <v>80</v>
       </c>
       <c r="AQ52" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8223,7 +8246,7 @@
         <v>81</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>80</v>
@@ -8232,19 +8255,21 @@
         <v>80</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="K53" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="L53" t="s" s="2">
         <v>385</v>
       </c>
-      <c r="L53" t="s" s="2">
+      <c r="M53" t="s" s="2">
         <v>386</v>
       </c>
-      <c r="M53" t="s" s="2">
+      <c r="N53" s="2"/>
+      <c r="O53" t="s" s="2">
         <v>387</v>
       </c>
-      <c r="N53" s="2"/>
-      <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
         <v>80</v>
       </c>
@@ -8292,48 +8317,48 @@
         <v>80</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ53" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK53" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL53" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM53" t="s" s="2">
         <v>388</v>
       </c>
-      <c r="AK53" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL53" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM53" t="s" s="2">
-        <v>80</v>
-      </c>
       <c r="AN53" t="s" s="2">
-        <v>80</v>
+        <v>389</v>
       </c>
       <c r="AO53" t="s" s="2">
-        <v>80</v>
+        <v>390</v>
       </c>
       <c r="AP53" t="s" s="2">
-        <v>80</v>
+        <v>391</v>
       </c>
       <c r="AQ53" t="s" s="2">
-        <v>80</v>
+        <v>388</v>
       </c>
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8356,13 +8381,13 @@
         <v>80</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>161</v>
+        <v>393</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>162</v>
+        <v>394</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>163</v>
+        <v>395</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
@@ -8413,7 +8438,7 @@
         <v>80</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>164</v>
+        <v>392</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>81</v>
@@ -8425,13 +8450,13 @@
         <v>80</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>80</v>
+        <v>396</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>165</v>
+        <v>80</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>80</v>
@@ -8451,21 +8476,21 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>390</v>
+        <v>397</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>390</v>
+        <v>397</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
-        <v>134</v>
+        <v>80</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>80</v>
@@ -8477,17 +8502,15 @@
         <v>80</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>135</v>
+        <v>169</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>136</v>
+        <v>170</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>138</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="N55" s="2"/>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
         <v>80</v>
@@ -8536,13 +8559,13 @@
         <v>80</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>80</v>
@@ -8554,7 +8577,7 @@
         <v>80</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>80</v>
@@ -8574,14 +8597,14 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
-        <v>392</v>
+        <v>148</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
@@ -8594,22 +8617,22 @@
         <v>80</v>
       </c>
       <c r="I56" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>141</v>
+        <v>176</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>393</v>
+        <v>177</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>138</v>
+        <v>151</v>
       </c>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
@@ -8659,7 +8682,7 @@
         <v>80</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>394</v>
+        <v>179</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>81</v>
@@ -8677,7 +8700,7 @@
         <v>80</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>132</v>
+        <v>173</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>80</v>
@@ -8697,41 +8720,43 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
-        <v>80</v>
+        <v>400</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I57" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="J57" t="s" s="2">
         <v>90</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>161</v>
+        <v>134</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>396</v>
+        <v>149</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>397</v>
-      </c>
-      <c r="N57" s="2"/>
+        <v>401</v>
+      </c>
+      <c r="N57" t="s" s="2">
+        <v>151</v>
+      </c>
       <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
         <v>80</v>
@@ -8780,13 +8805,13 @@
         <v>80</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>395</v>
+        <v>402</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>80</v>
@@ -8798,19 +8823,19 @@
         <v>80</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>80</v>
+        <v>132</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>398</v>
+        <v>80</v>
       </c>
       <c r="AO57" t="s" s="2">
-        <v>399</v>
+        <v>80</v>
       </c>
       <c r="AP57" t="s" s="2">
-        <v>400</v>
+        <v>80</v>
       </c>
       <c r="AQ57" t="s" s="2">
         <v>80</v>
@@ -8818,10 +8843,10 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8844,13 +8869,13 @@
         <v>90</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" s="2"/>
@@ -8901,7 +8926,7 @@
         <v>80</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>81</v>
@@ -8925,13 +8950,13 @@
         <v>80</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>398</v>
+        <v>406</v>
       </c>
       <c r="AO58" t="s" s="2">
-        <v>399</v>
+        <v>407</v>
       </c>
       <c r="AP58" t="s" s="2">
-        <v>400</v>
+        <v>408</v>
       </c>
       <c r="AQ58" t="s" s="2">
         <v>80</v>
@@ -8939,10 +8964,10 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>404</v>
+        <v>409</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>404</v>
+        <v>409</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8965,13 +8990,13 @@
         <v>90</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>405</v>
+        <v>410</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>406</v>
+        <v>411</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" s="2"/>
@@ -9022,7 +9047,7 @@
         <v>80</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>404</v>
+        <v>409</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>81</v>
@@ -9046,13 +9071,13 @@
         <v>80</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>80</v>
+        <v>406</v>
       </c>
       <c r="AO59" t="s" s="2">
-        <v>399</v>
+        <v>407</v>
       </c>
       <c r="AP59" t="s" s="2">
-        <v>80</v>
+        <v>408</v>
       </c>
       <c r="AQ59" t="s" s="2">
         <v>80</v>
@@ -9060,10 +9085,10 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>407</v>
+        <v>412</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>407</v>
+        <v>412</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9086,13 +9111,13 @@
         <v>90</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>408</v>
+        <v>413</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>409</v>
+        <v>414</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" s="2"/>
@@ -9143,34 +9168,34 @@
         <v>80</v>
       </c>
       <c r="AF60" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="AG60" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH60" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI60" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ60" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK60" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL60" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM60" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN60" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO60" t="s" s="2">
         <v>407</v>
-      </c>
-      <c r="AG60" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH60" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AI60" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ60" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AK60" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL60" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM60" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN60" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO60" t="s" s="2">
-        <v>399</v>
       </c>
       <c r="AP60" t="s" s="2">
         <v>80</v>
@@ -9181,10 +9206,10 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>410</v>
+        <v>415</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>410</v>
+        <v>415</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9207,13 +9232,13 @@
         <v>90</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>411</v>
+        <v>416</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>412</v>
+        <v>417</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" s="2"/>
@@ -9264,7 +9289,7 @@
         <v>80</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>410</v>
+        <v>415</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>81</v>
@@ -9288,10 +9313,10 @@
         <v>80</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>413</v>
+        <v>80</v>
       </c>
       <c r="AO61" t="s" s="2">
-        <v>414</v>
+        <v>407</v>
       </c>
       <c r="AP61" t="s" s="2">
         <v>80</v>
@@ -9302,10 +9327,10 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9328,13 +9353,13 @@
         <v>90</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" s="2"/>
@@ -9385,7 +9410,7 @@
         <v>80</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>81</v>
@@ -9409,10 +9434,10 @@
         <v>80</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>413</v>
+        <v>421</v>
       </c>
       <c r="AO62" t="s" s="2">
-        <v>414</v>
+        <v>422</v>
       </c>
       <c r="AP62" t="s" s="2">
         <v>80</v>
@@ -9423,10 +9448,10 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>418</v>
+        <v>423</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>418</v>
+        <v>423</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9449,13 +9474,13 @@
         <v>90</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>419</v>
+        <v>424</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>420</v>
+        <v>425</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" s="2"/>
@@ -9506,7 +9531,7 @@
         <v>80</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>418</v>
+        <v>423</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>81</v>
@@ -9530,10 +9555,10 @@
         <v>80</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>80</v>
+        <v>421</v>
       </c>
       <c r="AO63" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="AP63" t="s" s="2">
         <v>80</v>
@@ -9544,10 +9569,10 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9570,13 +9595,13 @@
         <v>90</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" s="2"/>
@@ -9627,7 +9652,7 @@
         <v>80</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>81</v>
@@ -9654,7 +9679,7 @@
         <v>80</v>
       </c>
       <c r="AO64" t="s" s="2">
-        <v>421</v>
+        <v>429</v>
       </c>
       <c r="AP64" t="s" s="2">
         <v>80</v>
@@ -9665,10 +9690,10 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>425</v>
+        <v>430</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>425</v>
+        <v>430</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9691,13 +9716,13 @@
         <v>90</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>426</v>
+        <v>431</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>427</v>
+        <v>432</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" s="2"/>
@@ -9748,7 +9773,7 @@
         <v>80</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>425</v>
+        <v>430</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>81</v>
@@ -9772,10 +9797,10 @@
         <v>80</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>413</v>
+        <v>80</v>
       </c>
       <c r="AO65" t="s" s="2">
-        <v>414</v>
+        <v>429</v>
       </c>
       <c r="AP65" t="s" s="2">
         <v>80</v>
@@ -9786,10 +9811,10 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -9812,13 +9837,13 @@
         <v>90</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>429</v>
+        <v>434</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>430</v>
+        <v>435</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" s="2"/>
@@ -9869,7 +9894,7 @@
         <v>80</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>81</v>
@@ -9893,10 +9918,10 @@
         <v>80</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>413</v>
+        <v>421</v>
       </c>
       <c r="AO66" t="s" s="2">
-        <v>414</v>
+        <v>422</v>
       </c>
       <c r="AP66" t="s" s="2">
         <v>80</v>
@@ -9907,10 +9932,10 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>431</v>
+        <v>436</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>431</v>
+        <v>436</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -9933,13 +9958,13 @@
         <v>90</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>432</v>
+        <v>437</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>433</v>
+        <v>438</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" s="2"/>
@@ -9990,7 +10015,7 @@
         <v>80</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>431</v>
+        <v>436</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>81</v>
@@ -10014,10 +10039,10 @@
         <v>80</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>413</v>
+        <v>421</v>
       </c>
       <c r="AO67" t="s" s="2">
-        <v>414</v>
+        <v>422</v>
       </c>
       <c r="AP67" t="s" s="2">
         <v>80</v>
@@ -10028,10 +10053,10 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>434</v>
+        <v>439</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>434</v>
+        <v>439</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -10054,13 +10079,13 @@
         <v>90</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>435</v>
+        <v>440</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>436</v>
+        <v>441</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" s="2"/>
@@ -10111,7 +10136,7 @@
         <v>80</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>434</v>
+        <v>439</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>81</v>
@@ -10135,10 +10160,10 @@
         <v>80</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>413</v>
+        <v>421</v>
       </c>
       <c r="AO68" t="s" s="2">
-        <v>414</v>
+        <v>422</v>
       </c>
       <c r="AP68" t="s" s="2">
         <v>80</v>
@@ -10149,10 +10174,10 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>437</v>
+        <v>442</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>437</v>
+        <v>442</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -10175,18 +10200,16 @@
         <v>90</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>438</v>
+        <v>443</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>439</v>
+        <v>444</v>
       </c>
       <c r="N69" s="2"/>
-      <c r="O69" t="s" s="2">
-        <v>440</v>
-      </c>
+      <c r="O69" s="2"/>
       <c r="P69" t="s" s="2">
         <v>80</v>
       </c>
@@ -10234,7 +10257,7 @@
         <v>80</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>437</v>
+        <v>442</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>81</v>
@@ -10258,10 +10281,10 @@
         <v>80</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>441</v>
+        <v>421</v>
       </c>
       <c r="AO69" t="s" s="2">
-        <v>442</v>
+        <v>422</v>
       </c>
       <c r="AP69" t="s" s="2">
         <v>80</v>
@@ -10272,10 +10295,10 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10298,17 +10321,17 @@
         <v>90</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" t="s" s="2">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="P70" t="s" s="2">
         <v>80</v>
@@ -10357,7 +10380,7 @@
         <v>80</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>81</v>
@@ -10381,10 +10404,10 @@
         <v>80</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="AO70" t="s" s="2">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="AP70" t="s" s="2">
         <v>80</v>
@@ -10395,10 +10418,10 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10421,16 +10444,18 @@
         <v>90</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>450</v>
+        <v>169</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="N71" s="2"/>
-      <c r="O71" s="2"/>
+      <c r="O71" t="s" s="2">
+        <v>454</v>
+      </c>
       <c r="P71" t="s" s="2">
         <v>80</v>
       </c>
@@ -10478,7 +10503,7 @@
         <v>80</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>81</v>
@@ -10502,10 +10527,10 @@
         <v>80</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>80</v>
+        <v>455</v>
       </c>
       <c r="AO71" t="s" s="2">
-        <v>442</v>
+        <v>456</v>
       </c>
       <c r="AP71" t="s" s="2">
         <v>80</v>
@@ -10516,10 +10541,10 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10542,13 +10567,13 @@
         <v>90</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>161</v>
+        <v>458</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>454</v>
+        <v>459</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>455</v>
+        <v>460</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" s="2"/>
@@ -10599,7 +10624,7 @@
         <v>80</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>81</v>
@@ -10623,10 +10648,10 @@
         <v>80</v>
       </c>
       <c r="AN72" t="s" s="2">
-        <v>456</v>
+        <v>80</v>
       </c>
       <c r="AO72" t="s" s="2">
-        <v>80</v>
+        <v>450</v>
       </c>
       <c r="AP72" t="s" s="2">
         <v>80</v>
@@ -10637,10 +10662,10 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -10651,7 +10676,7 @@
         <v>81</v>
       </c>
       <c r="G73" t="s" s="2">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="H73" t="s" s="2">
         <v>80</v>
@@ -10660,16 +10685,16 @@
         <v>80</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>458</v>
+        <v>169</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="N73" s="2"/>
       <c r="O73" s="2"/>
@@ -10720,44 +10745,165 @@
         <v>80</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH73" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI73" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ73" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK73" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL73" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM73" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN73" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="AO73" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AP73" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AQ73" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="74" hidden="true">
+      <c r="A74" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="B74" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="C74" s="2"/>
+      <c r="D74" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E74" s="2"/>
+      <c r="F74" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G74" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="AI73" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ73" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AK73" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL73" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM73" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN73" t="s" s="2">
-        <v>346</v>
-      </c>
-      <c r="AO73" t="s" s="2">
-        <v>461</v>
-      </c>
-      <c r="AP73" t="s" s="2">
-        <v>348</v>
-      </c>
-      <c r="AQ73" t="s" s="2">
+      <c r="H74" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I74" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J74" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="K74" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="L74" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="M74" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="N74" s="2"/>
+      <c r="O74" s="2"/>
+      <c r="P74" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q74" s="2"/>
+      <c r="R74" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S74" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T74" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U74" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V74" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W74" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X74" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y74" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z74" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA74" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB74" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC74" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD74" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE74" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF74" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="AG74" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH74" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI74" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ74" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK74" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL74" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM74" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN74" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="AO74" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="AP74" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="AQ74" t="s" s="2">
         <v>80</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AQ73">
+  <autoFilter ref="A1:AQ74">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -10767,7 +10913,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI72">
+  <conditionalFormatting sqref="A2:AI73">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/branches/master/StructureDefinition-coverage-pemh-profile.xlsx
+++ b/branches/master/StructureDefinition-coverage-pemh-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-16T20:28:10+00:00</t>
+    <t>2023-02-16T21:17:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-coverage-pemh-profile.xlsx
+++ b/branches/master/StructureDefinition-coverage-pemh-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-16T21:17:23+00:00</t>
+    <t>2023-02-16T21:36:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
